--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_SOx.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.002397360995738744</v>
+        <v>0.007374391808184962</v>
       </c>
       <c r="C2">
-        <v>0.0001841</v>
+        <v>0.0005663</v>
       </c>
       <c r="D2">
-        <v>0.0001272174134179973</v>
+        <v>0.0003913265682705697</v>
       </c>
       <c r="E2">
-        <v>3.719043706502583E-05</v>
+        <v>0.0001143994813140909</v>
       </c>
       <c r="F2">
-        <v>0.0002968999127388706</v>
+        <v>0.0009132776783488451</v>
       </c>
       <c r="G2">
-        <v>0.0001432085760940987</v>
+        <v>0.0004405161142970565</v>
       </c>
       <c r="H2">
-        <v>1.259012146396037E-05</v>
+        <v>3.872778807735337E-05</v>
       </c>
       <c r="I2">
-        <v>0.003198567456518697</v>
+        <v>0.009838939438492877</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.002087473111302286</v>
+        <v>0.006421162536287262</v>
       </c>
       <c r="C3">
-        <v>0.0004208000000000001</v>
+        <v>0.0012944</v>
       </c>
       <c r="D3">
-        <v>6.290970993197671E-05</v>
+        <v>0.000193513138155776</v>
       </c>
       <c r="E3">
-        <v>2.66648416692638E-05</v>
+        <v>8.202226962142364E-05</v>
       </c>
       <c r="F3">
-        <v>0.0003546625416763938</v>
+        <v>0.001090958160517881</v>
       </c>
       <c r="G3">
-        <v>0.0001150940090081407</v>
+        <v>0.0003540344231467141</v>
       </c>
       <c r="H3">
-        <v>1.091143860209898E-05</v>
+        <v>3.356408300037292E-05</v>
       </c>
       <c r="I3">
-        <v>0.00307851565219016</v>
+        <v>0.00946965461072943</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.002228996712068542</v>
+        <v>0.006856495589594871</v>
       </c>
       <c r="C4">
-        <v>0.0004076500000000001</v>
+        <v>0.00125395</v>
       </c>
       <c r="D4">
-        <v>0.0001104414907694701</v>
+        <v>0.0003397230647623627</v>
       </c>
       <c r="E4">
-        <v>2.876996074841621E-05</v>
+        <v>8.849771195995708E-05</v>
       </c>
       <c r="F4">
-        <v>0.0002945894075813696</v>
+        <v>0.0009061704590620837</v>
       </c>
       <c r="G4">
-        <v>0.0001238798112225026</v>
+        <v>0.0003810599516311961</v>
       </c>
       <c r="H4">
-        <v>1.342946289489106E-05</v>
+        <v>4.130964061584358E-05</v>
       </c>
       <c r="I4">
-        <v>0.003207756845285192</v>
+        <v>0.009867206417626312</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.002055752304233987</v>
+        <v>0.006323587886407968</v>
       </c>
       <c r="C5">
-        <v>0.0002827250000000001</v>
+        <v>0.0008696749999999998</v>
       </c>
       <c r="D5">
-        <v>8.667560035072343E-05</v>
+        <v>0.0002666181014590694</v>
       </c>
       <c r="E5">
-        <v>2.947166710813368E-05</v>
+        <v>9.065619273946823E-05</v>
       </c>
       <c r="F5">
-        <v>0.0002483793044313508</v>
+        <v>0.000764026073326855</v>
       </c>
       <c r="G5">
-        <v>0.0001177297496724492</v>
+        <v>0.0003621420816920588</v>
       </c>
       <c r="H5">
-        <v>1.510814575675244E-05</v>
+        <v>4.647334569282404E-05</v>
       </c>
       <c r="I5">
-        <v>0.002835841771553397</v>
+        <v>0.008723178681318241</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.002125294073576027</v>
+        <v>0.006537501541912572</v>
       </c>
       <c r="C6">
-        <v>0.000322175</v>
+        <v>0.000991025</v>
       </c>
       <c r="D6">
-        <v>0.0001328093876341729</v>
+        <v>0.0004085277361066385</v>
       </c>
       <c r="E6">
-        <v>2.947166710813368E-05</v>
+        <v>9.065619273946823E-05</v>
       </c>
       <c r="F6">
-        <v>0.0003015209230538723</v>
+        <v>0.0009274921169223683</v>
       </c>
       <c r="G6">
-        <v>0.0001036724661294703</v>
+        <v>0.0003189012361168875</v>
       </c>
       <c r="H6">
-        <v>1.426880432582175E-05</v>
+        <v>4.38914931543338E-05</v>
       </c>
       <c r="I6">
-        <v>0.003029212321827499</v>
+        <v>0.009317995316952269</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.002189955718753715</v>
+        <v>0.006736403712820354</v>
       </c>
       <c r="C7">
-        <v>0.00030245</v>
+        <v>0.00093035</v>
       </c>
       <c r="D7">
-        <v>0.000131411394080129</v>
+        <v>0.0004042274441476214</v>
       </c>
       <c r="E7">
-        <v>2.455972259011139E-05</v>
+        <v>7.554682728289021E-05</v>
       </c>
       <c r="F7">
-        <v>0.0003119181962626267</v>
+        <v>0.0009594746037127944</v>
       </c>
       <c r="G7">
-        <v>0.0001203654903367578</v>
+        <v>0.0003702497402374033</v>
       </c>
       <c r="H7">
-        <v>1.762617004954451E-05</v>
+        <v>5.42189033082947E-05</v>
       </c>
       <c r="I7">
-        <v>0.003098286692072884</v>
+        <v>0.009530471231509359</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.002322939102232351</v>
+        <v>0.007145466668083545</v>
       </c>
       <c r="C8">
-        <v>0.0003156</v>
+        <v>0.0009708000000000001</v>
       </c>
       <c r="D8">
-        <v>0.0001342073811882169</v>
+        <v>0.0004128280280656558</v>
       </c>
       <c r="E8">
-        <v>2.105119079152405E-05</v>
+        <v>6.475442338533445E-05</v>
       </c>
       <c r="F8">
-        <v>0.000315383953998878</v>
+        <v>0.0009701354326429365</v>
       </c>
       <c r="G8">
-        <v>6.852925727202272E-05</v>
+        <v>0.0002107991221789596</v>
       </c>
       <c r="H8">
-        <v>1.930485291140589E-05</v>
+        <v>5.938260838527517E-05</v>
       </c>
       <c r="I8">
-        <v>0.003197015738394399</v>
+        <v>0.009834166282741705</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.002718229159544999</v>
+        <v>0.008361396920425491</v>
       </c>
       <c r="C9">
-        <v>0.000269575</v>
+        <v>0.0008292250000000001</v>
       </c>
       <c r="D9">
-        <v>0.0001579732716069636</v>
+        <v>0.0004859329913689489</v>
       </c>
       <c r="E9">
-        <v>2.947166710813368E-05</v>
+        <v>9.065619273946823E-05</v>
       </c>
       <c r="F9">
-        <v>0.0003003656704751219</v>
+        <v>0.0009239385072789874</v>
       </c>
       <c r="G9">
-        <v>6.852925727202272E-05</v>
+        <v>0.0002107991221789596</v>
       </c>
       <c r="H9">
-        <v>1.510814575675244E-05</v>
+        <v>4.647334569282404E-05</v>
       </c>
       <c r="I9">
-        <v>0.003559252171763993</v>
+        <v>0.01094842207968468</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.003078138316666083</v>
+        <v>0.009468493909440536</v>
       </c>
       <c r="C10">
-        <v>0.000256425</v>
+        <v>0.0007887750000000001</v>
       </c>
       <c r="D10">
-        <v>0.0001090434972154262</v>
+        <v>0.0003354227728033453</v>
       </c>
       <c r="E10">
-        <v>4.982115153994026E-05</v>
+        <v>0.0001532521353452915</v>
       </c>
       <c r="F10">
-        <v>0.0002033244538600825</v>
+        <v>0.0006254352972350066</v>
       </c>
       <c r="G10">
-        <v>3.777894952175611E-05</v>
+        <v>0.0001162097724832726</v>
       </c>
       <c r="H10">
-        <v>2.434090149699004E-05</v>
+        <v>7.487372361621652E-05</v>
       </c>
       <c r="I10">
-        <v>0.003758872270300278</v>
+        <v>0.01156246261092367</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.00310253893748785</v>
+        <v>0.009543551332424608</v>
       </c>
       <c r="C11">
-        <v>0.0002498500000000001</v>
+        <v>0.0007685500000000002</v>
       </c>
       <c r="D11">
-        <v>9.646155522903089E-05</v>
+        <v>0.0002967201451721902</v>
       </c>
       <c r="E11">
-        <v>4.982115153994026E-05</v>
+        <v>0.0001532521353452915</v>
       </c>
       <c r="F11">
-        <v>0.000165201118761317</v>
+        <v>0.0005081661790034429</v>
       </c>
       <c r="G11">
-        <v>7.907221992925696E-06</v>
+        <v>2.432297563603379E-05</v>
       </c>
       <c r="H11">
-        <v>1.007209717116829E-05</v>
+        <v>3.098223046188269E-05</v>
       </c>
       <c r="I11">
-        <v>0.003681852082182232</v>
+        <v>0.01132554499804345</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.00233147931951997</v>
+        <v>0.007171736766127971</v>
       </c>
       <c r="C12">
-        <v>0.00011835</v>
+        <v>0.00036405</v>
       </c>
       <c r="D12">
-        <v>6.850168414815237E-05</v>
+        <v>0.0002107143059918452</v>
       </c>
       <c r="E12">
-        <v>4.561091338163546E-05</v>
+        <v>0.0001403012506682246</v>
       </c>
       <c r="F12">
-        <v>0.0001120595001387955</v>
+        <v>0.0003447001354079299</v>
       </c>
       <c r="G12">
-        <v>1.581444398585139E-05</v>
+        <v>4.864595127206757E-05</v>
       </c>
       <c r="H12">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I12">
-        <v>0.002694333885467196</v>
+        <v>0.00828789396708351</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.001908128548262287</v>
+        <v>0.005869490477354339</v>
       </c>
       <c r="C13">
-        <v>0.000177525</v>
+        <v>0.0005460750000000001</v>
       </c>
       <c r="D13">
-        <v>4.613378728344957E-05</v>
+        <v>0.0001419096346475691</v>
       </c>
       <c r="E13">
-        <v>5.12245642593752E-05</v>
+        <v>0.0001575690969043138</v>
       </c>
       <c r="F13">
-        <v>6.815990214627767E-05</v>
+        <v>0.0002096629689594625</v>
       </c>
       <c r="G13">
-        <v>1.493586376441521E-05</v>
+        <v>4.59433984236194E-05</v>
       </c>
       <c r="H13">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I13">
-        <v>0.002268625690008597</v>
+        <v>0.006978396133904774</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.001395715511005153</v>
+        <v>0.004293284594688852</v>
       </c>
       <c r="C14">
-        <v>9.862500000000001E-05</v>
+        <v>0.000303375</v>
       </c>
       <c r="D14">
-        <v>3.914381951322994E-05</v>
+        <v>0.0001204081748524829</v>
       </c>
       <c r="E14">
-        <v>3.859384978446077E-05</v>
+        <v>0.0001187164428731132</v>
       </c>
       <c r="F14">
-        <v>6.122838667377484E-05</v>
+        <v>0.0001883413110991782</v>
       </c>
       <c r="G14">
-        <v>7.907221992925696E-06</v>
+        <v>2.432297563603379E-05</v>
       </c>
       <c r="H14">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I14">
-        <v>0.001642892471831405</v>
+        <v>0.00505361220422664</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.0009809049570350895</v>
+        <v>0.003017308403959649</v>
       </c>
       <c r="C15">
-        <v>0.00011835</v>
+        <v>0.00036405</v>
       </c>
       <c r="D15">
-        <v>1.957190975661497E-05</v>
+        <v>6.020408742624147E-05</v>
       </c>
       <c r="E15">
-        <v>1.964777807208912E-05</v>
+        <v>6.043746182631213E-05</v>
       </c>
       <c r="F15">
-        <v>3.350232478376359E-05</v>
+        <v>0.0001030546796580409</v>
       </c>
       <c r="G15">
-        <v>1.669302420728759E-05</v>
+        <v>5.134850412051578E-05</v>
       </c>
       <c r="H15">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I15">
-        <v>0.001190348676716706</v>
+        <v>0.003661566842067739</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.0005843948686813532</v>
+        <v>0.001797625280468497</v>
       </c>
       <c r="C16">
-        <v>0.000138075</v>
+        <v>0.000424725</v>
       </c>
       <c r="D16">
-        <v>1.677592264852711E-05</v>
+        <v>5.160350350820697E-05</v>
       </c>
       <c r="E16">
-        <v>8.420476316609622E-06</v>
+        <v>2.590176935413378E-05</v>
       </c>
       <c r="F16">
-        <v>3.00365670475122E-05</v>
+        <v>9.239385072789873E-05</v>
       </c>
       <c r="G16">
-        <v>1.054296265723426E-05</v>
+        <v>3.243063418137839E-05</v>
       </c>
       <c r="H16">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I16">
-        <v>0.000789924480213098</v>
+        <v>0.002429843743317095</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.0004306709575042123</v>
+        <v>0.001324763515668849</v>
       </c>
       <c r="C17">
-        <v>0.000216975</v>
+        <v>0.0006674250000000001</v>
       </c>
       <c r="D17">
-        <v>1.397993554043926E-06</v>
+        <v>4.300291959017249E-06</v>
       </c>
       <c r="E17">
-        <v>4.210238158304811E-06</v>
+        <v>1.295088467706689E-05</v>
       </c>
       <c r="F17">
-        <v>4.736535572876922E-05</v>
+        <v>0.0001456979953786096</v>
       </c>
       <c r="G17">
-        <v>1.405728354297902E-05</v>
+        <v>4.324084557517119E-05</v>
       </c>
       <c r="I17">
-        <v>0.0007146768284883093</v>
+        <v>0.002198378533258714</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.0002513263944642145</v>
+        <v>0.0007730914567359295</v>
       </c>
       <c r="C18">
-        <v>0.0001578</v>
+        <v>0.0004854</v>
       </c>
       <c r="D18">
-        <v>1.397993554043926E-06</v>
+        <v>4.300291959017249E-06</v>
       </c>
       <c r="E18">
-        <v>2.806825438869874E-06</v>
+        <v>8.63392311804459E-06</v>
       </c>
       <c r="F18">
-        <v>3.696808252001498E-05</v>
+        <v>0.0001137155085881831</v>
       </c>
       <c r="G18">
-        <v>1.317870332154283E-05</v>
+        <v>4.053829272672302E-05</v>
       </c>
       <c r="H18">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I18">
-        <v>0.0004643173407296168</v>
+        <v>0.001428261325666388</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.0001927649044919704</v>
+        <v>0.0005929536415741596</v>
       </c>
       <c r="C19">
-        <v>0.00022355</v>
+        <v>0.0006876500000000002</v>
       </c>
       <c r="D19">
-        <v>1.118394843235141E-05</v>
+        <v>3.440233567213799E-05</v>
       </c>
       <c r="E19">
-        <v>7.017063597174685E-07</v>
+        <v>2.158480779511148E-06</v>
       </c>
       <c r="F19">
-        <v>2.426030415375985E-05</v>
+        <v>7.462580251099513E-05</v>
       </c>
       <c r="G19">
-        <v>1.757160442872377E-05</v>
+        <v>5.4051056968964E-05</v>
       </c>
       <c r="I19">
-        <v>0.000470032467866523</v>
+        <v>0.001445841317505768</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.0002391260840533303</v>
+        <v>0.0007355627452438942</v>
       </c>
       <c r="C20">
-        <v>0.00011835</v>
+        <v>0.00036405</v>
       </c>
       <c r="D20">
-        <v>8.387961324263557E-06</v>
+        <v>2.580175175410349E-05</v>
       </c>
       <c r="E20">
-        <v>6.315357237457218E-06</v>
+        <v>1.942632701560034E-05</v>
       </c>
       <c r="F20">
-        <v>3.00365670475122E-05</v>
+        <v>9.239385072789873E-05</v>
       </c>
       <c r="G20">
-        <v>1.493586376441521E-05</v>
+        <v>4.59433984236194E-05</v>
       </c>
       <c r="H20">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I20">
-        <v>0.0004179911748579092</v>
+        <v>0.001285759925703606</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.0003525889708745531</v>
+        <v>0.001084579762119824</v>
       </c>
       <c r="C21">
-        <v>3.2875E-05</v>
+        <v>0.000101125</v>
       </c>
       <c r="D21">
-        <v>1.817391620257104E-05</v>
+        <v>5.590379546722422E-05</v>
       </c>
       <c r="E21">
-        <v>3.508531798587342E-06</v>
+        <v>1.079240389755574E-05</v>
       </c>
       <c r="F21">
-        <v>5.545212378002251E-05</v>
+        <v>0.0001705732628822745</v>
       </c>
       <c r="G21">
-        <v>2.547882642164947E-05</v>
+        <v>7.837403260499778E-05</v>
       </c>
       <c r="H21">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I21">
-        <v>0.0004889167105083142</v>
+        <v>0.001503930109510366</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.0009345437774737293</v>
+        <v>0.002874699300289912</v>
       </c>
       <c r="C22">
-        <v>6.575E-05</v>
+        <v>0.0002022500000000001</v>
       </c>
       <c r="D22">
-        <v>3.634783240514208E-05</v>
+        <v>0.0001118075909344484</v>
       </c>
       <c r="E22">
-        <v>2.526142894982887E-05</v>
+        <v>7.770530806240134E-05</v>
       </c>
       <c r="F22">
-        <v>0.0001189910156112983</v>
+        <v>0.000366021793268214</v>
       </c>
       <c r="G22">
-        <v>3.953610996462848E-05</v>
+        <v>0.000121614878180169</v>
       </c>
       <c r="H22">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I22">
-        <v>0.001222108847266489</v>
+        <v>0.003759262575812126</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.001533579018648143</v>
+        <v>0.004717359034548851</v>
       </c>
       <c r="C23">
-        <v>0.00014465</v>
+        <v>0.00044495</v>
       </c>
       <c r="D23">
-        <v>7.269566481028416E-05</v>
+        <v>0.0002236151818688969</v>
       </c>
       <c r="E23">
-        <v>6.175015965513725E-05</v>
+        <v>0.0001899463085969811</v>
       </c>
       <c r="F23">
-        <v>0.0002102559693325853</v>
+        <v>0.0006467569550952911</v>
       </c>
       <c r="G23">
-        <v>5.271481328617132E-05</v>
+        <v>0.0001621531709068921</v>
       </c>
       <c r="H23">
-        <v>1.091143860209898E-05</v>
+        <v>3.356408300037292E-05</v>
       </c>
       <c r="I23">
-        <v>0.00208655706433442</v>
+        <v>0.006418344734017285</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.002577925589819831</v>
+        <v>0.007929816738267082</v>
       </c>
       <c r="C24">
-        <v>0.00014465</v>
+        <v>0.00044495</v>
       </c>
       <c r="D24">
-        <v>0.0001188294520937337</v>
+        <v>0.0003655248165164661</v>
       </c>
       <c r="E24">
-        <v>7.788940592863901E-05</v>
+        <v>0.0002395913665257375</v>
       </c>
       <c r="F24">
-        <v>0.0002645528405338575</v>
+        <v>0.0008137766083341848</v>
       </c>
       <c r="G24">
-        <v>0.0001001581452437255</v>
+        <v>0.0003080910247230947</v>
       </c>
       <c r="H24">
-        <v>2.182287720419797E-05</v>
+        <v>6.712816600074584E-05</v>
       </c>
       <c r="I24">
-        <v>0.003305828310823985</v>
+        <v>0.01016887872036731</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.00296467542984486</v>
+        <v>0.009119476892564605</v>
       </c>
       <c r="C25">
-        <v>0.0001315</v>
+        <v>0.0004045000000000001</v>
       </c>
       <c r="D25">
-        <v>0.0001090434972154262</v>
+        <v>0.0003354227728033453</v>
       </c>
       <c r="E25">
-        <v>4.350579430248304E-05</v>
+        <v>0.0001338258083296912</v>
       </c>
       <c r="F25">
-        <v>0.0002194979899625891</v>
+        <v>0.000675185832242337</v>
       </c>
       <c r="G25">
-        <v>5.798629461478845E-05</v>
+        <v>0.0001783684879975812</v>
       </c>
       <c r="H25">
-        <v>1.175078003302968E-05</v>
+        <v>3.614593553886313E-05</v>
       </c>
       <c r="I25">
-        <v>0.003537959785973177</v>
+        <v>0.01088292572947643</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.002397360995738744</v>
+        <v>0.007374391808184962</v>
       </c>
       <c r="C26">
-        <v>0.0001841</v>
+        <v>0.0005663</v>
       </c>
       <c r="D26">
-        <v>0.0001272174134179973</v>
+        <v>0.0003913265682705697</v>
       </c>
       <c r="E26">
-        <v>3.719043706502583E-05</v>
+        <v>0.0001143994813140909</v>
       </c>
       <c r="F26">
-        <v>0.0002968999127388706</v>
+        <v>0.0009132776783488451</v>
       </c>
       <c r="G26">
-        <v>0.0001432085760940987</v>
+        <v>0.0004405161142970565</v>
       </c>
       <c r="H26">
-        <v>1.259012146396037E-05</v>
+        <v>3.872778807735337E-05</v>
       </c>
       <c r="I26">
-        <v>0.003198567456518697</v>
+        <v>0.009838939438492877</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.002061852459439428</v>
+        <v>0.006342352242153988</v>
       </c>
       <c r="C27">
-        <v>0.0003616249999999999</v>
+        <v>0.001112375</v>
       </c>
       <c r="D27">
-        <v>0.0001146354714316019</v>
+        <v>0.0003526239406394143</v>
       </c>
       <c r="E27">
-        <v>2.876996074841621E-05</v>
+        <v>8.849771195995708E-05</v>
       </c>
       <c r="F27">
-        <v>0.0003477310262038912</v>
+        <v>0.001069636502657597</v>
       </c>
       <c r="G27">
-        <v>0.0001291512925511197</v>
+        <v>0.0003972752687218852</v>
       </c>
       <c r="H27">
-        <v>1.846551148047521E-05</v>
+        <v>5.680075584678494E-05</v>
       </c>
       <c r="I27">
-        <v>0.003062230721854932</v>
+        <v>0.009419561421979628</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.002171655253137387</v>
+        <v>0.006680110645582305</v>
       </c>
       <c r="C28">
-        <v>0.000335325</v>
+        <v>0.001031475</v>
       </c>
       <c r="D28">
-        <v>0.0001090434972154262</v>
+        <v>0.0003354227728033453</v>
       </c>
       <c r="E28">
-        <v>4.069896886361318E-05</v>
+        <v>0.0001251918852116466</v>
       </c>
       <c r="F28">
-        <v>0.0002865026395301163</v>
+        <v>0.0008812951915584187</v>
       </c>
       <c r="G28">
-        <v>0.0001502372178655882</v>
+        <v>0.0004621365370846423</v>
       </c>
       <c r="H28">
-        <v>1.930485291140589E-05</v>
+        <v>5.938260838527517E-05</v>
       </c>
       <c r="I28">
-        <v>0.003112767429523536</v>
+        <v>0.009575014640625634</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.002164335066890856</v>
+        <v>0.006657593418687082</v>
       </c>
       <c r="C29">
-        <v>0.000309025</v>
+        <v>0.0009505749999999999</v>
       </c>
       <c r="D29">
-        <v>9.226757456689915E-05</v>
+        <v>0.0002838192692951383</v>
       </c>
       <c r="E29">
-        <v>2.736654802898128E-05</v>
+        <v>8.418075040093479E-05</v>
       </c>
       <c r="F29">
-        <v>0.0002622423353763564</v>
+        <v>0.0008066693890474237</v>
       </c>
       <c r="G29">
-        <v>0.0001124582683438321</v>
+        <v>0.0003459267646013695</v>
       </c>
       <c r="H29">
-        <v>1.175078003302968E-05</v>
+        <v>3.614593553886313E-05</v>
       </c>
       <c r="I29">
-        <v>0.002979445573239954</v>
+        <v>0.009164910527570812</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.002289998264122965</v>
+        <v>0.007044139147055046</v>
       </c>
       <c r="C30">
-        <v>0.000322175</v>
+        <v>0.000991025</v>
       </c>
       <c r="D30">
-        <v>8.947158745881129E-05</v>
+        <v>0.000275218685377104</v>
       </c>
       <c r="E30">
-        <v>3.227849254700355E-05</v>
+        <v>9.929011585751285E-05</v>
       </c>
       <c r="F30">
-        <v>0.0003269364797863828</v>
+        <v>0.001005671529076744</v>
       </c>
       <c r="G30">
-        <v>9.3129503472236E-05</v>
+        <v>0.0002864706019355092</v>
       </c>
       <c r="H30">
-        <v>1.762617004954451E-05</v>
+        <v>5.42189033082947E-05</v>
       </c>
       <c r="I30">
-        <v>0.003171615497436943</v>
+        <v>0.009756033982610211</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.00220825618437004</v>
+        <v>0.006792696780058414</v>
       </c>
       <c r="C31">
-        <v>0.000256425</v>
+        <v>0.0007887750000000001</v>
       </c>
       <c r="D31">
-        <v>0.0001272174134179973</v>
+        <v>0.0003913265682705697</v>
       </c>
       <c r="E31">
-        <v>2.947166710813368E-05</v>
+        <v>9.065619273946823E-05</v>
       </c>
       <c r="F31">
-        <v>0.0003096076911051256</v>
+        <v>0.0009523673844260331</v>
       </c>
       <c r="G31">
-        <v>8.873660236505506E-05</v>
+        <v>0.000272957837693268</v>
       </c>
       <c r="H31">
-        <v>2.014419434233658E-05</v>
+        <v>6.196446092376537E-05</v>
       </c>
       <c r="I31">
-        <v>0.003039858752708688</v>
+        <v>0.009350744224111519</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.002338799505766501</v>
+        <v>0.007194253993023191</v>
       </c>
       <c r="C32">
-        <v>0.000295875</v>
+        <v>0.0009101249999999999</v>
       </c>
       <c r="D32">
-        <v>0.0001258194198639534</v>
+        <v>0.0003870262763115521</v>
       </c>
       <c r="E32">
-        <v>3.087507982756863E-05</v>
+        <v>9.497315429849054E-05</v>
       </c>
       <c r="F32">
-        <v>0.0003015209230538723</v>
+        <v>0.0009274921169223683</v>
       </c>
       <c r="G32">
-        <v>8.785802214361882E-05</v>
+        <v>0.0002702552848448199</v>
       </c>
       <c r="H32">
-        <v>1.175078003302968E-05</v>
+        <v>3.614593553886313E-05</v>
       </c>
       <c r="I32">
-        <v>0.003192498730688544</v>
+        <v>0.009820271760939284</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.002718229159544999</v>
+        <v>0.008361396920425491</v>
       </c>
       <c r="C33">
-        <v>0.000269575</v>
+        <v>0.0008292250000000001</v>
       </c>
       <c r="D33">
-        <v>0.0001579732716069636</v>
+        <v>0.0004859329913689489</v>
       </c>
       <c r="E33">
-        <v>2.947166710813368E-05</v>
+        <v>9.065619273946823E-05</v>
       </c>
       <c r="F33">
-        <v>0.0003003656704751219</v>
+        <v>0.0009239385072789874</v>
       </c>
       <c r="G33">
-        <v>6.852925727202272E-05</v>
+        <v>0.0002107991221789596</v>
       </c>
       <c r="H33">
-        <v>1.510814575675244E-05</v>
+        <v>4.647334569282404E-05</v>
       </c>
       <c r="I33">
-        <v>0.003559252171763993</v>
+        <v>0.01094842207968468</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.003078138316666083</v>
+        <v>0.009468493909440536</v>
       </c>
       <c r="C34">
-        <v>0.000256425</v>
+        <v>0.0007887750000000001</v>
       </c>
       <c r="D34">
-        <v>0.0001090434972154262</v>
+        <v>0.0003354227728033453</v>
       </c>
       <c r="E34">
-        <v>4.982115153994026E-05</v>
+        <v>0.0001532521353452915</v>
       </c>
       <c r="F34">
-        <v>0.0002033244538600825</v>
+        <v>0.0006254352972350066</v>
       </c>
       <c r="G34">
-        <v>3.777894952175611E-05</v>
+        <v>0.0001162097724832726</v>
       </c>
       <c r="H34">
-        <v>2.434090149699004E-05</v>
+        <v>7.487372361621652E-05</v>
       </c>
       <c r="I34">
-        <v>0.003758872270300278</v>
+        <v>0.01156246261092367</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.00310253893748785</v>
+        <v>0.009543551332424608</v>
       </c>
       <c r="C35">
-        <v>0.0002498500000000001</v>
+        <v>0.0007685500000000002</v>
       </c>
       <c r="D35">
-        <v>9.646155522903089E-05</v>
+        <v>0.0002967201451721902</v>
       </c>
       <c r="E35">
-        <v>4.982115153994026E-05</v>
+        <v>0.0001532521353452915</v>
       </c>
       <c r="F35">
-        <v>0.000165201118761317</v>
+        <v>0.0005081661790034429</v>
       </c>
       <c r="G35">
-        <v>7.907221992925696E-06</v>
+        <v>2.432297563603379E-05</v>
       </c>
       <c r="H35">
-        <v>1.007209717116829E-05</v>
+        <v>3.098223046188269E-05</v>
       </c>
       <c r="I35">
-        <v>0.003681852082182232</v>
+        <v>0.01132554499804345</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.00233147931951997</v>
+        <v>0.007171736766127971</v>
       </c>
       <c r="C36">
-        <v>0.00011835</v>
+        <v>0.00036405</v>
       </c>
       <c r="D36">
-        <v>6.850168414815237E-05</v>
+        <v>0.0002107143059918452</v>
       </c>
       <c r="E36">
-        <v>4.561091338163546E-05</v>
+        <v>0.0001403012506682246</v>
       </c>
       <c r="F36">
-        <v>0.0001120595001387955</v>
+        <v>0.0003447001354079299</v>
       </c>
       <c r="G36">
-        <v>1.581444398585139E-05</v>
+        <v>4.864595127206757E-05</v>
       </c>
       <c r="H36">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I36">
-        <v>0.002694333885467196</v>
+        <v>0.00828789396708351</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.001908128548262287</v>
+        <v>0.005869490477354339</v>
       </c>
       <c r="C37">
-        <v>0.000177525</v>
+        <v>0.0005460750000000001</v>
       </c>
       <c r="D37">
-        <v>4.613378728344957E-05</v>
+        <v>0.0001419096346475691</v>
       </c>
       <c r="E37">
-        <v>5.12245642593752E-05</v>
+        <v>0.0001575690969043138</v>
       </c>
       <c r="F37">
-        <v>6.815990214627767E-05</v>
+        <v>0.0002096629689594625</v>
       </c>
       <c r="G37">
-        <v>1.493586376441521E-05</v>
+        <v>4.59433984236194E-05</v>
       </c>
       <c r="H37">
-        <v>2.518024292792073E-06</v>
+        <v>7.745557615470672E-06</v>
       </c>
       <c r="I37">
-        <v>0.002268625690008597</v>
+        <v>0.006978396133904774</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.001395715511005153</v>
+        <v>0.004293284594688852</v>
       </c>
       <c r="C38">
-        <v>9.862500000000001E-05</v>
+        <v>0.000303375</v>
       </c>
       <c r="D38">
-        <v>3.914381951322994E-05</v>
+        <v>0.0001204081748524829</v>
       </c>
       <c r="E38">
-        <v>3.859384978446077E-05</v>
+        <v>0.0001187164428731132</v>
       </c>
       <c r="F38">
-        <v>6.122838667377484E-05</v>
+        <v>0.0001883413110991782</v>
       </c>
       <c r="G38">
-        <v>7.907221992925696E-06</v>
+        <v>2.432297563603379E-05</v>
       </c>
       <c r="H38">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I38">
-        <v>0.001642892471831405</v>
+        <v>0.00505361220422664</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.0009809049570350895</v>
+        <v>0.003017308403959649</v>
       </c>
       <c r="C39">
-        <v>0.00011835</v>
+        <v>0.00036405</v>
       </c>
       <c r="D39">
-        <v>1.957190975661497E-05</v>
+        <v>6.020408742624147E-05</v>
       </c>
       <c r="E39">
-        <v>1.964777807208912E-05</v>
+        <v>6.043746182631213E-05</v>
       </c>
       <c r="F39">
-        <v>3.350232478376359E-05</v>
+        <v>0.0001030546796580409</v>
       </c>
       <c r="G39">
-        <v>1.669302420728759E-05</v>
+        <v>5.134850412051578E-05</v>
       </c>
       <c r="H39">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I39">
-        <v>0.001190348676716706</v>
+        <v>0.003661566842067739</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.0005843948686813532</v>
+        <v>0.001797625280468497</v>
       </c>
       <c r="C40">
-        <v>0.000138075</v>
+        <v>0.000424725</v>
       </c>
       <c r="D40">
-        <v>1.677592264852711E-05</v>
+        <v>5.160350350820697E-05</v>
       </c>
       <c r="E40">
-        <v>8.420476316609622E-06</v>
+        <v>2.590176935413378E-05</v>
       </c>
       <c r="F40">
-        <v>3.00365670475122E-05</v>
+        <v>9.239385072789873E-05</v>
       </c>
       <c r="G40">
-        <v>1.054296265723426E-05</v>
+        <v>3.243063418137839E-05</v>
       </c>
       <c r="H40">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I40">
-        <v>0.000789924480213098</v>
+        <v>0.002429843743317095</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.0004306709575042123</v>
+        <v>0.001324763515668849</v>
       </c>
       <c r="C41">
-        <v>0.000216975</v>
+        <v>0.0006674250000000001</v>
       </c>
       <c r="D41">
-        <v>1.397993554043926E-06</v>
+        <v>4.300291959017249E-06</v>
       </c>
       <c r="E41">
-        <v>4.210238158304811E-06</v>
+        <v>1.295088467706689E-05</v>
       </c>
       <c r="F41">
-        <v>4.736535572876922E-05</v>
+        <v>0.0001456979953786096</v>
       </c>
       <c r="G41">
-        <v>1.405728354297902E-05</v>
+        <v>4.324084557517119E-05</v>
       </c>
       <c r="I41">
-        <v>0.0007146768284883093</v>
+        <v>0.002198378533258714</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.0002513263944642145</v>
+        <v>0.0007730914567359295</v>
       </c>
       <c r="C42">
-        <v>0.0001578</v>
+        <v>0.0004854</v>
       </c>
       <c r="D42">
-        <v>1.397993554043926E-06</v>
+        <v>4.300291959017249E-06</v>
       </c>
       <c r="E42">
-        <v>2.806825438869874E-06</v>
+        <v>8.63392311804459E-06</v>
       </c>
       <c r="F42">
-        <v>3.696808252001498E-05</v>
+        <v>0.0001137155085881831</v>
       </c>
       <c r="G42">
-        <v>1.317870332154283E-05</v>
+        <v>4.053829272672302E-05</v>
       </c>
       <c r="H42">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I42">
-        <v>0.0004643173407296168</v>
+        <v>0.001428261325666388</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.0001927649044919704</v>
+        <v>0.0005929536415741596</v>
       </c>
       <c r="C43">
-        <v>0.00022355</v>
+        <v>0.0006876500000000002</v>
       </c>
       <c r="D43">
-        <v>1.118394843235141E-05</v>
+        <v>3.440233567213799E-05</v>
       </c>
       <c r="E43">
-        <v>7.017063597174685E-07</v>
+        <v>2.158480779511148E-06</v>
       </c>
       <c r="F43">
-        <v>2.426030415375985E-05</v>
+        <v>7.462580251099513E-05</v>
       </c>
       <c r="G43">
-        <v>1.757160442872377E-05</v>
+        <v>5.4051056968964E-05</v>
       </c>
       <c r="I43">
-        <v>0.000470032467866523</v>
+        <v>0.001445841317505768</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.0002391260840533303</v>
+        <v>0.0007355627452438942</v>
       </c>
       <c r="C44">
-        <v>0.00011835</v>
+        <v>0.00036405</v>
       </c>
       <c r="D44">
-        <v>8.387961324263557E-06</v>
+        <v>2.580175175410349E-05</v>
       </c>
       <c r="E44">
-        <v>6.315357237457218E-06</v>
+        <v>1.942632701560034E-05</v>
       </c>
       <c r="F44">
-        <v>3.00365670475122E-05</v>
+        <v>9.239385072789873E-05</v>
       </c>
       <c r="G44">
-        <v>1.493586376441521E-05</v>
+        <v>4.59433984236194E-05</v>
       </c>
       <c r="H44">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I44">
-        <v>0.0004179911748579092</v>
+        <v>0.001285759925703606</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.0003525889708745531</v>
+        <v>0.001084579762119824</v>
       </c>
       <c r="C45">
-        <v>3.2875E-05</v>
+        <v>0.000101125</v>
       </c>
       <c r="D45">
-        <v>1.817391620257104E-05</v>
+        <v>5.590379546722422E-05</v>
       </c>
       <c r="E45">
-        <v>3.508531798587342E-06</v>
+        <v>1.079240389755574E-05</v>
       </c>
       <c r="F45">
-        <v>5.545212378002251E-05</v>
+        <v>0.0001705732628822745</v>
       </c>
       <c r="G45">
-        <v>2.547882642164947E-05</v>
+        <v>7.837403260499778E-05</v>
       </c>
       <c r="H45">
-        <v>8.39341430930691E-07</v>
+        <v>2.581852538490224E-06</v>
       </c>
       <c r="I45">
-        <v>0.0004889167105083142</v>
+        <v>0.001503930109510366</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.0009345437774737293</v>
+        <v>0.002874699300289912</v>
       </c>
       <c r="C46">
-        <v>6.575E-05</v>
+        <v>0.0002022500000000001</v>
       </c>
       <c r="D46">
-        <v>3.634783240514208E-05</v>
+        <v>0.0001118075909344484</v>
       </c>
       <c r="E46">
-        <v>2.526142894982887E-05</v>
+        <v>7.770530806240134E-05</v>
       </c>
       <c r="F46">
-        <v>0.0001189910156112983</v>
+        <v>0.000366021793268214</v>
       </c>
       <c r="G46">
-        <v>3.953610996462848E-05</v>
+        <v>0.000121614878180169</v>
       </c>
       <c r="H46">
-        <v>1.678682861861382E-06</v>
+        <v>5.163705076980448E-06</v>
       </c>
       <c r="I46">
-        <v>0.001222108847266489</v>
+        <v>0.003759262575812126</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.001533579018648143</v>
+        <v>0.004717359034548851</v>
       </c>
       <c r="C47">
-        <v>0.00014465</v>
+        <v>0.00044495</v>
       </c>
       <c r="D47">
-        <v>7.269566481028416E-05</v>
+        <v>0.0002236151818688969</v>
       </c>
       <c r="E47">
-        <v>6.175015965513725E-05</v>
+        <v>0.0001899463085969811</v>
       </c>
       <c r="F47">
-        <v>0.0002102559693325853</v>
+        <v>0.0006467569550952911</v>
       </c>
       <c r="G47">
-        <v>5.271481328617132E-05</v>
+        <v>0.0001621531709068921</v>
       </c>
       <c r="H47">
-        <v>1.091143860209898E-05</v>
+        <v>3.356408300037292E-05</v>
       </c>
       <c r="I47">
-        <v>0.00208655706433442</v>
+        <v>0.006418344734017285</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.002577925589819831</v>
+        <v>0.007929816738267082</v>
       </c>
       <c r="C48">
-        <v>0.00014465</v>
+        <v>0.00044495</v>
       </c>
       <c r="D48">
-        <v>0.0001188294520937337</v>
+        <v>0.0003655248165164661</v>
       </c>
       <c r="E48">
-        <v>7.788940592863901E-05</v>
+        <v>0.0002395913665257375</v>
       </c>
       <c r="F48">
-        <v>0.0002645528405338575</v>
+        <v>0.0008137766083341848</v>
       </c>
       <c r="G48">
-        <v>0.0001001581452437255</v>
+        <v>0.0003080910247230947</v>
       </c>
       <c r="H48">
-        <v>2.182287720419797E-05</v>
+        <v>6.712816600074584E-05</v>
       </c>
       <c r="I48">
-        <v>0.003305828310823985</v>
+        <v>0.01016887872036731</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.00296467542984486</v>
+        <v>0.009119476892564605</v>
       </c>
       <c r="C49">
-        <v>0.0001315</v>
+        <v>0.0004045000000000001</v>
       </c>
       <c r="D49">
-        <v>0.0001090434972154262</v>
+        <v>0.0003354227728033453</v>
       </c>
       <c r="E49">
-        <v>4.350579430248304E-05</v>
+        <v>0.0001338258083296912</v>
       </c>
       <c r="F49">
-        <v>0.0002194979899625891</v>
+        <v>0.000675185832242337</v>
       </c>
       <c r="G49">
-        <v>5.798629461478845E-05</v>
+        <v>0.0001783684879975812</v>
       </c>
       <c r="H49">
-        <v>1.175078003302968E-05</v>
+        <v>3.614593553886313E-05</v>
       </c>
       <c r="I49">
-        <v>0.003537959785973177</v>
+        <v>0.01088292572947643</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_SOx.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2.68845684192735</v>
+        <v>0.8407658603308031</v>
       </c>
       <c r="C2">
-        <v>0.03261888</v>
+        <v>0.01020096000000001</v>
       </c>
       <c r="D2">
-        <v>0.3000882423933066</v>
+        <v>0.09384712648393892</v>
       </c>
       <c r="E2">
-        <v>0.3033767056711678</v>
+        <v>0.09487553341755922</v>
       </c>
       <c r="F2">
-        <v>0.2646640542384181</v>
+        <v>0.08276885750595765</v>
       </c>
       <c r="G2">
-        <v>1.011932581066715</v>
+        <v>0.3164634647835335</v>
       </c>
       <c r="H2">
-        <v>0.1080354274613998</v>
+        <v>0.03378611019497421</v>
       </c>
       <c r="I2">
-        <v>4.709172732758357</v>
+        <v>1.472707912716767</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.340941301036996</v>
+        <v>0.7320867109547095</v>
       </c>
       <c r="C3">
-        <v>0.07455744</v>
+        <v>0.02331648000000001</v>
       </c>
       <c r="D3">
-        <v>0.1483952846999868</v>
+        <v>0.04640791968985991</v>
       </c>
       <c r="E3">
-        <v>0.217515373877441</v>
+        <v>0.06802396735598587</v>
       </c>
       <c r="F3">
-        <v>0.316155115374297</v>
+        <v>0.09887174807131913</v>
       </c>
       <c r="G3">
-        <v>0.8132709700597525</v>
+        <v>0.2543356680162142</v>
       </c>
       <c r="H3">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I3">
-        <v>4.004466188848354</v>
+        <v>1.2523237895904</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.499649185853063</v>
+        <v>0.7817197083075712</v>
       </c>
       <c r="C4">
-        <v>0.07222751999999999</v>
+        <v>0.02258784</v>
       </c>
       <c r="D4">
-        <v>0.2605161664733102</v>
+        <v>0.08147168123330953</v>
       </c>
       <c r="E4">
-        <v>0.2346876402361864</v>
+        <v>0.07339428056830057</v>
       </c>
       <c r="F4">
-        <v>0.2626044117929831</v>
+        <v>0.08212474188334332</v>
       </c>
       <c r="G4">
-        <v>0.8753527234994286</v>
+        <v>0.2737506045060017</v>
       </c>
       <c r="H4">
-        <v>0.1152377892921598</v>
+        <v>0.03603851754130585</v>
       </c>
       <c r="I4">
-        <v>4.320275437147131</v>
+        <v>1.351087374039832</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.305368844095465</v>
+        <v>0.7209620736169986</v>
       </c>
       <c r="C5">
-        <v>0.05009328</v>
+        <v>0.01566576</v>
       </c>
       <c r="D5">
-        <v>0.2044557255866488</v>
+        <v>0.06393980046158475</v>
       </c>
       <c r="E5">
-        <v>0.2404117290224348</v>
+        <v>0.07518438497240545</v>
       </c>
       <c r="F5">
-        <v>0.2214115628842797</v>
+        <v>0.06924242943105413</v>
       </c>
       <c r="G5">
-        <v>0.8318954960916553</v>
+        <v>0.2601601489631503</v>
       </c>
       <c r="H5">
-        <v>0.1296425129536798</v>
+        <v>0.04054333223396907</v>
       </c>
       <c r="I5">
-        <v>3.983279150634163</v>
+        <v>1.245697929679162</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.383354615082668</v>
+        <v>0.7453507016265947</v>
       </c>
       <c r="C6">
-        <v>0.05708304000000001</v>
+        <v>0.01785168</v>
       </c>
       <c r="D6">
-        <v>0.3132789343666386</v>
+        <v>0.09797227490081531</v>
       </c>
       <c r="E6">
-        <v>0.2404117290224348</v>
+        <v>0.07518438497240545</v>
       </c>
       <c r="F6">
-        <v>0.2687833391292885</v>
+        <v>0.08405708875118663</v>
       </c>
       <c r="G6">
-        <v>0.732564690588175</v>
+        <v>0.2290962505794908</v>
       </c>
       <c r="H6">
-        <v>0.1224401511229198</v>
+        <v>0.03829092488763743</v>
       </c>
       <c r="I6">
-        <v>4.117916499312125</v>
+        <v>1.28780330571813</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.455867700386563</v>
+        <v>0.7680278469688497</v>
       </c>
       <c r="C7">
-        <v>0.05358816000000001</v>
+        <v>0.01675872</v>
       </c>
       <c r="D7">
-        <v>0.3099812613733057</v>
+        <v>0.09694098779659616</v>
       </c>
       <c r="E7">
-        <v>0.2003431075186956</v>
+        <v>0.0626536541436712</v>
       </c>
       <c r="F7">
-        <v>0.2780517301337465</v>
+        <v>0.08695560905295162</v>
       </c>
       <c r="G7">
-        <v>0.850520022123558</v>
+        <v>0.2659846299100866</v>
       </c>
       <c r="H7">
-        <v>0.1512495984459598</v>
+        <v>0.04730055427296392</v>
       </c>
       <c r="I7">
-        <v>4.299601579981827</v>
+        <v>1.344622002145119</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.604998385256831</v>
+        <v>0.814665749653867</v>
       </c>
       <c r="C8">
-        <v>0.05591807999999998</v>
+        <v>0.01748735999999999</v>
       </c>
       <c r="D8">
-        <v>0.3165766073599717</v>
+        <v>0.09900356200503432</v>
       </c>
       <c r="E8">
-        <v>0.1717226635874535</v>
+        <v>0.05370313212314671</v>
       </c>
       <c r="F8">
-        <v>0.2811411938018993</v>
+        <v>0.08792178248687338</v>
       </c>
       <c r="G8">
-        <v>0.4842376768294713</v>
+        <v>0.1514365046203414</v>
       </c>
       <c r="H8">
-        <v>0.1656543221074797</v>
+        <v>0.05180536896562715</v>
       </c>
       <c r="I8">
-        <v>4.080248928943107</v>
+        <v>1.27602345985489</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>3.048285925605159</v>
+        <v>0.9532958457084115</v>
       </c>
       <c r="C9">
-        <v>0.04776335999999998</v>
+        <v>0.01493712</v>
       </c>
       <c r="D9">
-        <v>0.3726370482466338</v>
+        <v>0.1165354427767593</v>
       </c>
       <c r="E9">
-        <v>0.2404117290224348</v>
+        <v>0.07518438497240545</v>
       </c>
       <c r="F9">
-        <v>0.2677535179065711</v>
+        <v>0.08373503093987938</v>
       </c>
       <c r="G9">
-        <v>0.4842376768294713</v>
+        <v>0.1514365046203414</v>
       </c>
       <c r="H9">
-        <v>0.1296425129536798</v>
+        <v>0.04054333223396907</v>
       </c>
       <c r="I9">
-        <v>4.590731770563949</v>
+        <v>1.435667661251766</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3.451896494749467</v>
+        <v>1.079517692424741</v>
       </c>
       <c r="C10">
-        <v>0.04543344000000001</v>
+        <v>0.01420848</v>
       </c>
       <c r="D10">
-        <v>0.2572184934799774</v>
+        <v>0.08044039412909058</v>
       </c>
       <c r="E10">
-        <v>0.4064103038236399</v>
+        <v>0.1270974126914473</v>
       </c>
       <c r="F10">
-        <v>0.1812485351982942</v>
+        <v>0.05668217479007222</v>
       </c>
       <c r="G10">
-        <v>0.266951539790606</v>
+        <v>0.08348422690608565</v>
       </c>
       <c r="H10">
-        <v>0.2088684930920395</v>
+        <v>0.06531981304361684</v>
       </c>
       <c r="I10">
-        <v>4.818027300134024</v>
+        <v>1.506750193985053</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.479259923166031</v>
+        <v>1.08807510576144</v>
       </c>
       <c r="C11">
-        <v>0.04426847999999999</v>
+        <v>0.01384416</v>
       </c>
       <c r="D11">
-        <v>0.2275394365399799</v>
+        <v>0.07115881019111842</v>
       </c>
       <c r="E11">
-        <v>0.4064103038236399</v>
+        <v>0.1270974126914473</v>
       </c>
       <c r="F11">
-        <v>0.1472644348486141</v>
+        <v>0.04605426701693371</v>
       </c>
       <c r="G11">
-        <v>0.05587357809570821</v>
+        <v>0.01747344284080861</v>
       </c>
       <c r="H11">
-        <v>0.08642834196911983</v>
+        <v>0.02702888815597937</v>
       </c>
       <c r="I11">
-        <v>4.447044498443092</v>
+        <v>1.390732086657728</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.614575585202625</v>
+        <v>0.8176608443217113</v>
       </c>
       <c r="C12">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D12">
-        <v>0.1615859766733191</v>
+        <v>0.0505330681067364</v>
       </c>
       <c r="E12">
-        <v>0.372065771106149</v>
+        <v>0.1163567862668179</v>
       </c>
       <c r="F12">
-        <v>0.09989265860360524</v>
+        <v>0.03123960769680116</v>
       </c>
       <c r="G12">
-        <v>0.1117471561914164</v>
+        <v>0.03494688568161722</v>
       </c>
       <c r="H12">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I12">
-        <v>3.402443513269394</v>
+        <v>1.064052174112679</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>2.139820102175257</v>
+        <v>0.6691897229299619</v>
       </c>
       <c r="C13">
-        <v>0.03145391999999999</v>
+        <v>0.009836640000000002</v>
       </c>
       <c r="D13">
-        <v>0.1088232087799905</v>
+        <v>0.03403247443923061</v>
       </c>
       <c r="E13">
-        <v>0.4178584813961368</v>
+        <v>0.1306776214996571</v>
       </c>
       <c r="F13">
-        <v>0.06075945214033723</v>
+        <v>0.01900141086712649</v>
       </c>
       <c r="G13">
-        <v>0.1055389808474488</v>
+        <v>0.03300539203263853</v>
       </c>
       <c r="H13">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I13">
-        <v>2.88586123083145</v>
+        <v>0.9025004838076095</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.565188105427423</v>
+        <v>0.4894840428592565</v>
       </c>
       <c r="C14">
-        <v>0.01747439999999999</v>
+        <v>0.0054648</v>
       </c>
       <c r="D14">
-        <v>0.0923348438133251</v>
+        <v>0.02887603891813506</v>
       </c>
       <c r="E14">
-        <v>0.3148248832436645</v>
+        <v>0.09845574222576903</v>
       </c>
       <c r="F14">
-        <v>0.05458052480403176</v>
+        <v>0.0170690639992831</v>
       </c>
       <c r="G14">
-        <v>0.05587357809570821</v>
+        <v>0.01747344284080861</v>
       </c>
       <c r="H14">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I14">
-        <v>2.114681059045673</v>
+        <v>0.6613279455359156</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1.100009822345847</v>
+        <v>0.3440080161353514</v>
       </c>
       <c r="C15">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D15">
-        <v>0.04616742190666255</v>
+        <v>0.01443801945906753</v>
       </c>
       <c r="E15">
-        <v>0.1602744860149565</v>
+        <v>0.05012292331493695</v>
       </c>
       <c r="F15">
-        <v>0.02986481545880983</v>
+        <v>0.009339676527909615</v>
       </c>
       <c r="G15">
-        <v>0.117955331535384</v>
+        <v>0.03688837933059601</v>
       </c>
       <c r="H15">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I15">
-        <v>1.48964588092318</v>
+        <v>0.4658595894605247</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.6553541105766922</v>
+        <v>0.2049500494139719</v>
       </c>
       <c r="C16">
-        <v>0.02446416</v>
+        <v>0.007650720000000001</v>
       </c>
       <c r="D16">
-        <v>0.03957207591999646</v>
+        <v>0.01237544525062929</v>
       </c>
       <c r="E16">
-        <v>0.06868906543498138</v>
+        <v>0.0214812528492587</v>
       </c>
       <c r="F16">
-        <v>0.02677535179065709</v>
+        <v>0.008373503093987943</v>
       </c>
       <c r="G16">
-        <v>0.0744981041276109</v>
+        <v>0.02329792378774484</v>
       </c>
       <c r="H16">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I16">
-        <v>0.9037575915114581</v>
+        <v>0.2826337090882559</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.4829645115523431</v>
+        <v>0.1510383453927601</v>
       </c>
       <c r="C17">
-        <v>0.03844368000000001</v>
+        <v>0.01202256</v>
       </c>
       <c r="D17">
-        <v>0.003297672993333039</v>
+        <v>0.001031287104219109</v>
       </c>
       <c r="E17">
-        <v>0.03434453271749069</v>
+        <v>0.01074062642462935</v>
       </c>
       <c r="F17">
-        <v>0.0422226701314208</v>
+        <v>0.01320437026359637</v>
       </c>
       <c r="G17">
-        <v>0.09933080550348125</v>
+        <v>0.03106389838365978</v>
       </c>
       <c r="I17">
-        <v>0.7006038728980689</v>
+        <v>0.2191010875688646</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2818433126906027</v>
+        <v>0.0881413573680129</v>
       </c>
       <c r="C18">
-        <v>0.02795903999999999</v>
+        <v>0.008743679999999997</v>
       </c>
       <c r="D18">
-        <v>0.003297672993333039</v>
+        <v>0.001031287104219109</v>
       </c>
       <c r="E18">
-        <v>0.0228963551449938</v>
+        <v>0.007160417616419567</v>
       </c>
       <c r="F18">
-        <v>0.03295427912696255</v>
+        <v>0.01030584996183131</v>
       </c>
       <c r="G18">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H18">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I18">
-        <v>0.4692756519461658</v>
+        <v>0.1467574041314955</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.2161710844908507</v>
+        <v>0.06760356535993224</v>
       </c>
       <c r="C19">
-        <v>0.03960864</v>
+        <v>0.01238688000000001</v>
       </c>
       <c r="D19">
-        <v>0.02638138394666431</v>
+        <v>0.008250296833752875</v>
       </c>
       <c r="E19">
-        <v>0.00572408878624845</v>
+        <v>0.001790104404104892</v>
       </c>
       <c r="F19">
-        <v>0.02162624567706919</v>
+        <v>0.0067632140374518</v>
       </c>
       <c r="G19">
-        <v>0.1241635068793516</v>
+        <v>0.03882987297957469</v>
       </c>
       <c r="I19">
-        <v>0.4336749497801843</v>
+        <v>0.1356239336148165</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.2681615984823209</v>
+        <v>0.0838626506996628</v>
       </c>
       <c r="C20">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D20">
-        <v>0.01978603795999823</v>
+        <v>0.006187722625314645</v>
       </c>
       <c r="E20">
-        <v>0.05151679907623602</v>
+        <v>0.01611093963694403</v>
       </c>
       <c r="F20">
-        <v>0.02677535179065709</v>
+        <v>0.008373503093987943</v>
       </c>
       <c r="G20">
-        <v>0.1055389808474488</v>
+        <v>0.03300539203263853</v>
       </c>
       <c r="H20">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I20">
-        <v>0.4999504099874211</v>
+        <v>0.1563503754348796</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.3954015406193407</v>
+        <v>0.1236546227153191</v>
       </c>
       <c r="C21">
-        <v>0.005824800000000001</v>
+        <v>0.0018216</v>
       </c>
       <c r="D21">
-        <v>0.04286974891332954</v>
+        <v>0.01340673235484843</v>
       </c>
       <c r="E21">
-        <v>0.02862044393124223</v>
+        <v>0.008950522020524456</v>
       </c>
       <c r="F21">
-        <v>0.0494314186904439</v>
+        <v>0.01545877494274697</v>
       </c>
       <c r="G21">
-        <v>0.1800370849750597</v>
+        <v>0.05630331582038337</v>
       </c>
       <c r="H21">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I21">
-        <v>0.709387398960176</v>
+        <v>0.2218479752001539</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1.048019308354377</v>
+        <v>0.3277489307956211</v>
       </c>
       <c r="C22">
-        <v>0.0116496</v>
+        <v>0.003643200000000001</v>
       </c>
       <c r="D22">
-        <v>0.08573949782665907</v>
+        <v>0.02681346470969686</v>
       </c>
       <c r="E22">
-        <v>0.2060671963049441</v>
+        <v>0.06444375854777611</v>
       </c>
       <c r="F22">
-        <v>0.1060715859399107</v>
+        <v>0.03317195456464453</v>
       </c>
       <c r="G22">
-        <v>0.2793678904785412</v>
+        <v>0.08736721420404311</v>
       </c>
       <c r="H22">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I22">
-        <v>1.751319802565951</v>
+        <v>0.547693337514445</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.719791475981007</v>
+        <v>0.5378334282116131</v>
       </c>
       <c r="C23">
-        <v>0.02562911999999998</v>
+        <v>0.008015040000000005</v>
       </c>
       <c r="D23">
-        <v>0.1714789956533181</v>
+        <v>0.05362692941939372</v>
       </c>
       <c r="E23">
-        <v>0.5037198131898634</v>
+        <v>0.1575291875612304</v>
       </c>
       <c r="F23">
-        <v>0.1874274625345997</v>
+        <v>0.05861452165791557</v>
       </c>
       <c r="G23">
-        <v>0.3724905206380548</v>
+        <v>0.1164896189387242</v>
       </c>
       <c r="H23">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I23">
-        <v>3.074168091796723</v>
+        <v>0.9613900212911879</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2.890946212209919</v>
+        <v>0.9040907190223842</v>
       </c>
       <c r="C24">
-        <v>0.02562911999999998</v>
+        <v>0.008015040000000005</v>
       </c>
       <c r="D24">
-        <v>0.2803022044333081</v>
+        <v>0.08765940385862428</v>
       </c>
       <c r="E24">
-        <v>0.6353738552735777</v>
+        <v>0.198701588855643</v>
       </c>
       <c r="F24">
-        <v>0.235829060002326</v>
+        <v>0.07375123878935529</v>
       </c>
       <c r="G24">
-        <v>0.7077319892123044</v>
+        <v>0.2213302759835756</v>
       </c>
       <c r="H24">
-        <v>0.1872614075997597</v>
+        <v>0.05856259100462201</v>
       </c>
       <c r="I24">
-        <v>4.963073848731195</v>
+        <v>1.552110857514204</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>3.324656552612454</v>
+        <v>1.039725720409085</v>
       </c>
       <c r="C25">
-        <v>0.0232992</v>
+        <v>0.007286400000000002</v>
       </c>
       <c r="D25">
-        <v>0.2572184934799774</v>
+        <v>0.08044039412909058</v>
       </c>
       <c r="E25">
-        <v>0.3548935047474037</v>
+        <v>0.1109864730545032</v>
       </c>
       <c r="F25">
-        <v>0.1956660323163402</v>
+        <v>0.06119098414837341</v>
       </c>
       <c r="G25">
-        <v>0.4097395727018598</v>
+        <v>0.1281385808325964</v>
       </c>
       <c r="H25">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I25">
-        <v>4.666306421488674</v>
+        <v>1.459302255422291</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2.68845684192735</v>
+        <v>0.8407658603308031</v>
       </c>
       <c r="C26">
-        <v>0.03261888</v>
+        <v>0.01020096000000001</v>
       </c>
       <c r="D26">
-        <v>0.3000882423933066</v>
+        <v>0.09384712648393892</v>
       </c>
       <c r="E26">
-        <v>0.3033767056711678</v>
+        <v>0.09487553341755922</v>
       </c>
       <c r="F26">
-        <v>0.2646640542384181</v>
+        <v>0.08276885750595765</v>
       </c>
       <c r="G26">
-        <v>1.011932581066715</v>
+        <v>0.3164634647835335</v>
       </c>
       <c r="H26">
-        <v>0.1080354274613998</v>
+        <v>0.03378611019497421</v>
       </c>
       <c r="I26">
-        <v>4.709172732758357</v>
+        <v>1.472707912716767</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.312209701199605</v>
+        <v>0.7231014269511734</v>
       </c>
       <c r="C27">
-        <v>0.06407279999999999</v>
+        <v>0.02003759999999999</v>
       </c>
       <c r="D27">
-        <v>0.2704091854533095</v>
+        <v>0.08456554254596695</v>
       </c>
       <c r="E27">
-        <v>0.2346876402361864</v>
+        <v>0.07339428056830057</v>
       </c>
       <c r="F27">
-        <v>0.3099761880379917</v>
+        <v>0.09693940120347573</v>
       </c>
       <c r="G27">
-        <v>0.9126017755632342</v>
+        <v>0.285399566399874</v>
       </c>
       <c r="H27">
-        <v>0.1584519602767197</v>
+        <v>0.04955296161929552</v>
       </c>
       <c r="I27">
-        <v>4.262409250767046</v>
+        <v>1.332990779288086</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.435345129074141</v>
+        <v>0.7616097869663252</v>
       </c>
       <c r="C28">
-        <v>0.05941296000000001</v>
+        <v>0.01858032</v>
       </c>
       <c r="D28">
-        <v>0.2572184934799774</v>
+        <v>0.08044039412909058</v>
       </c>
       <c r="E28">
-        <v>0.3319971496024097</v>
+        <v>0.1038260554380837</v>
       </c>
       <c r="F28">
-        <v>0.2553956632339602</v>
+        <v>0.07987033720419269</v>
       </c>
       <c r="G28">
-        <v>1.061597983818456</v>
+        <v>0.3319954139753641</v>
       </c>
       <c r="H28">
-        <v>0.1656543221074797</v>
+        <v>0.05180536896562715</v>
       </c>
       <c r="I28">
-        <v>4.566621701316423</v>
+        <v>1.428127676678683</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.427136100549171</v>
+        <v>0.7590425629653149</v>
       </c>
       <c r="C29">
-        <v>0.05475312000000001</v>
+        <v>0.01712304</v>
       </c>
       <c r="D29">
-        <v>0.2176464175599809</v>
+        <v>0.06806494887846122</v>
       </c>
       <c r="E29">
-        <v>0.2232394626636894</v>
+        <v>0.06981407176009076</v>
       </c>
       <c r="F29">
-        <v>0.2337694175568907</v>
+        <v>0.07310712316674085</v>
       </c>
       <c r="G29">
-        <v>0.79464644402785</v>
+        <v>0.2485111870692783</v>
       </c>
       <c r="H29">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I29">
-        <v>4.052024027988223</v>
+        <v>1.267196636688529</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.568057756894472</v>
+        <v>0.8031132416493222</v>
       </c>
       <c r="C30">
-        <v>0.05708304000000001</v>
+        <v>0.01785168</v>
       </c>
       <c r="D30">
-        <v>0.2110510715733145</v>
+        <v>0.066002374670023</v>
       </c>
       <c r="E30">
-        <v>0.2633080841674287</v>
+        <v>0.08234480258882504</v>
       </c>
       <c r="F30">
-        <v>0.2914394060290753</v>
+        <v>0.09114236059994565</v>
       </c>
       <c r="G30">
-        <v>0.6580665864605632</v>
+        <v>0.2057983267917459</v>
       </c>
       <c r="H30">
-        <v>0.1512495984459598</v>
+        <v>0.04730055427296392</v>
       </c>
       <c r="I30">
-        <v>4.200255543570814</v>
+        <v>1.313553340572826</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.476390271698984</v>
+        <v>0.7744459069713758</v>
       </c>
       <c r="C31">
-        <v>0.04543344000000001</v>
+        <v>0.01420848</v>
       </c>
       <c r="D31">
-        <v>0.3000882423933066</v>
+        <v>0.09384712648393892</v>
       </c>
       <c r="E31">
-        <v>0.2404117290224348</v>
+        <v>0.07518438497240545</v>
       </c>
       <c r="F31">
-        <v>0.2759920876883115</v>
+        <v>0.08631149343033724</v>
       </c>
       <c r="G31">
-        <v>0.6270257097407255</v>
+        <v>0.1960908585468523</v>
       </c>
       <c r="H31">
-        <v>0.1728566839382397</v>
+        <v>0.05405777631195874</v>
       </c>
       <c r="I31">
-        <v>4.138198164482001</v>
+        <v>1.294146026716869</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.622784613727599</v>
+        <v>0.8202280683227221</v>
       </c>
       <c r="C32">
-        <v>0.0524232</v>
+        <v>0.01639439999999999</v>
       </c>
       <c r="D32">
-        <v>0.2967905693999736</v>
+        <v>0.09281583937971982</v>
       </c>
       <c r="E32">
-        <v>0.2518599065949317</v>
+        <v>0.07876459378061521</v>
       </c>
       <c r="F32">
-        <v>0.2687833391292885</v>
+        <v>0.08405708875118663</v>
       </c>
       <c r="G32">
-        <v>0.6208175343967574</v>
+        <v>0.1941493648978736</v>
       </c>
       <c r="H32">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I32">
-        <v>4.21429222887919</v>
+        <v>1.31794305798076</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>3.048285925605159</v>
+        <v>0.9532958457084115</v>
       </c>
       <c r="C33">
-        <v>0.04776335999999998</v>
+        <v>0.01493712</v>
       </c>
       <c r="D33">
-        <v>0.3726370482466338</v>
+        <v>0.1165354427767593</v>
       </c>
       <c r="E33">
-        <v>0.2404117290224348</v>
+        <v>0.07518438497240545</v>
       </c>
       <c r="F33">
-        <v>0.2677535179065711</v>
+        <v>0.08373503093987938</v>
       </c>
       <c r="G33">
-        <v>0.4842376768294713</v>
+        <v>0.1514365046203414</v>
       </c>
       <c r="H33">
-        <v>0.1296425129536798</v>
+        <v>0.04054333223396907</v>
       </c>
       <c r="I33">
-        <v>4.590731770563949</v>
+        <v>1.435667661251766</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3.451896494749467</v>
+        <v>1.079517692424741</v>
       </c>
       <c r="C34">
-        <v>0.04543344000000001</v>
+        <v>0.01420848</v>
       </c>
       <c r="D34">
-        <v>0.2572184934799774</v>
+        <v>0.08044039412909058</v>
       </c>
       <c r="E34">
-        <v>0.4064103038236399</v>
+        <v>0.1270974126914473</v>
       </c>
       <c r="F34">
-        <v>0.1812485351982942</v>
+        <v>0.05668217479007222</v>
       </c>
       <c r="G34">
-        <v>0.266951539790606</v>
+        <v>0.08348422690608565</v>
       </c>
       <c r="H34">
-        <v>0.2088684930920395</v>
+        <v>0.06531981304361684</v>
       </c>
       <c r="I34">
-        <v>4.818027300134024</v>
+        <v>1.506750193985053</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3.479259923166031</v>
+        <v>1.08807510576144</v>
       </c>
       <c r="C35">
-        <v>0.04426847999999999</v>
+        <v>0.01384416</v>
       </c>
       <c r="D35">
-        <v>0.2275394365399799</v>
+        <v>0.07115881019111842</v>
       </c>
       <c r="E35">
-        <v>0.4064103038236399</v>
+        <v>0.1270974126914473</v>
       </c>
       <c r="F35">
-        <v>0.1472644348486141</v>
+        <v>0.04605426701693371</v>
       </c>
       <c r="G35">
-        <v>0.05587357809570821</v>
+        <v>0.01747344284080861</v>
       </c>
       <c r="H35">
-        <v>0.08642834196911983</v>
+        <v>0.02702888815597937</v>
       </c>
       <c r="I35">
-        <v>4.447044498443092</v>
+        <v>1.390732086657728</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.614575585202625</v>
+        <v>0.8176608443217113</v>
       </c>
       <c r="C36">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D36">
-        <v>0.1615859766733191</v>
+        <v>0.0505330681067364</v>
       </c>
       <c r="E36">
-        <v>0.372065771106149</v>
+        <v>0.1163567862668179</v>
       </c>
       <c r="F36">
-        <v>0.09989265860360524</v>
+        <v>0.03123960769680116</v>
       </c>
       <c r="G36">
-        <v>0.1117471561914164</v>
+        <v>0.03494688568161722</v>
       </c>
       <c r="H36">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I36">
-        <v>3.402443513269394</v>
+        <v>1.064052174112679</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2.139820102175257</v>
+        <v>0.6691897229299619</v>
       </c>
       <c r="C37">
-        <v>0.03145391999999999</v>
+        <v>0.009836640000000002</v>
       </c>
       <c r="D37">
-        <v>0.1088232087799905</v>
+        <v>0.03403247443923061</v>
       </c>
       <c r="E37">
-        <v>0.4178584813961368</v>
+        <v>0.1306776214996571</v>
       </c>
       <c r="F37">
-        <v>0.06075945214033723</v>
+        <v>0.01900141086712649</v>
       </c>
       <c r="G37">
-        <v>0.1055389808474488</v>
+        <v>0.03300539203263853</v>
       </c>
       <c r="H37">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I37">
-        <v>2.88586123083145</v>
+        <v>0.9025004838076095</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.565188105427423</v>
+        <v>0.4894840428592565</v>
       </c>
       <c r="C38">
-        <v>0.01747439999999999</v>
+        <v>0.0054648</v>
       </c>
       <c r="D38">
-        <v>0.0923348438133251</v>
+        <v>0.02887603891813506</v>
       </c>
       <c r="E38">
-        <v>0.3148248832436645</v>
+        <v>0.09845574222576903</v>
       </c>
       <c r="F38">
-        <v>0.05458052480403176</v>
+        <v>0.0170690639992831</v>
       </c>
       <c r="G38">
-        <v>0.05587357809570821</v>
+        <v>0.01747344284080861</v>
       </c>
       <c r="H38">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I38">
-        <v>2.114681059045673</v>
+        <v>0.6613279455359156</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1.100009822345847</v>
+        <v>0.3440080161353514</v>
       </c>
       <c r="C39">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D39">
-        <v>0.04616742190666255</v>
+        <v>0.01443801945906753</v>
       </c>
       <c r="E39">
-        <v>0.1602744860149565</v>
+        <v>0.05012292331493695</v>
       </c>
       <c r="F39">
-        <v>0.02986481545880983</v>
+        <v>0.009339676527909615</v>
       </c>
       <c r="G39">
-        <v>0.117955331535384</v>
+        <v>0.03688837933059601</v>
       </c>
       <c r="H39">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I39">
-        <v>1.48964588092318</v>
+        <v>0.4658595894605247</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.6553541105766922</v>
+        <v>0.2049500494139719</v>
       </c>
       <c r="C40">
-        <v>0.02446416</v>
+        <v>0.007650720000000001</v>
       </c>
       <c r="D40">
-        <v>0.03957207591999646</v>
+        <v>0.01237544525062929</v>
       </c>
       <c r="E40">
-        <v>0.06868906543498138</v>
+        <v>0.0214812528492587</v>
       </c>
       <c r="F40">
-        <v>0.02677535179065709</v>
+        <v>0.008373503093987943</v>
       </c>
       <c r="G40">
-        <v>0.0744981041276109</v>
+        <v>0.02329792378774484</v>
       </c>
       <c r="H40">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I40">
-        <v>0.9037575915114581</v>
+        <v>0.2826337090882559</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.4829645115523431</v>
+        <v>0.1510383453927601</v>
       </c>
       <c r="C41">
-        <v>0.03844368000000001</v>
+        <v>0.01202256</v>
       </c>
       <c r="D41">
-        <v>0.003297672993333039</v>
+        <v>0.001031287104219109</v>
       </c>
       <c r="E41">
-        <v>0.03434453271749069</v>
+        <v>0.01074062642462935</v>
       </c>
       <c r="F41">
-        <v>0.0422226701314208</v>
+        <v>0.01320437026359637</v>
       </c>
       <c r="G41">
-        <v>0.09933080550348125</v>
+        <v>0.03106389838365978</v>
       </c>
       <c r="I41">
-        <v>0.7006038728980689</v>
+        <v>0.2191010875688646</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2818433126906027</v>
+        <v>0.0881413573680129</v>
       </c>
       <c r="C42">
-        <v>0.02795903999999999</v>
+        <v>0.008743679999999997</v>
       </c>
       <c r="D42">
-        <v>0.003297672993333039</v>
+        <v>0.001031287104219109</v>
       </c>
       <c r="E42">
-        <v>0.0228963551449938</v>
+        <v>0.007160417616419567</v>
       </c>
       <c r="F42">
-        <v>0.03295427912696255</v>
+        <v>0.01030584996183131</v>
       </c>
       <c r="G42">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H42">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I42">
-        <v>0.4692756519461658</v>
+        <v>0.1467574041314955</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.2161710844908507</v>
+        <v>0.06760356535993224</v>
       </c>
       <c r="C43">
-        <v>0.03960864</v>
+        <v>0.01238688000000001</v>
       </c>
       <c r="D43">
-        <v>0.02638138394666431</v>
+        <v>0.008250296833752875</v>
       </c>
       <c r="E43">
-        <v>0.00572408878624845</v>
+        <v>0.001790104404104892</v>
       </c>
       <c r="F43">
-        <v>0.02162624567706919</v>
+        <v>0.0067632140374518</v>
       </c>
       <c r="G43">
-        <v>0.1241635068793516</v>
+        <v>0.03882987297957469</v>
       </c>
       <c r="I43">
-        <v>0.4336749497801843</v>
+        <v>0.1356239336148165</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.2681615984823209</v>
+        <v>0.0838626506996628</v>
       </c>
       <c r="C44">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D44">
-        <v>0.01978603795999823</v>
+        <v>0.006187722625314645</v>
       </c>
       <c r="E44">
-        <v>0.05151679907623602</v>
+        <v>0.01611093963694403</v>
       </c>
       <c r="F44">
-        <v>0.02677535179065709</v>
+        <v>0.008373503093987943</v>
       </c>
       <c r="G44">
-        <v>0.1055389808474488</v>
+        <v>0.03300539203263853</v>
       </c>
       <c r="H44">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I44">
-        <v>0.4999504099874211</v>
+        <v>0.1563503754348796</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.3954015406193407</v>
+        <v>0.1236546227153191</v>
       </c>
       <c r="C45">
-        <v>0.005824800000000001</v>
+        <v>0.0018216</v>
       </c>
       <c r="D45">
-        <v>0.04286974891332954</v>
+        <v>0.01340673235484843</v>
       </c>
       <c r="E45">
-        <v>0.02862044393124223</v>
+        <v>0.008950522020524456</v>
       </c>
       <c r="F45">
-        <v>0.0494314186904439</v>
+        <v>0.01545877494274697</v>
       </c>
       <c r="G45">
-        <v>0.1800370849750597</v>
+        <v>0.05630331582038337</v>
       </c>
       <c r="H45">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I45">
-        <v>0.709387398960176</v>
+        <v>0.2218479752001539</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.048019308354377</v>
+        <v>0.3277489307956211</v>
       </c>
       <c r="C46">
-        <v>0.0116496</v>
+        <v>0.003643200000000001</v>
       </c>
       <c r="D46">
-        <v>0.08573949782665907</v>
+        <v>0.02681346470969686</v>
       </c>
       <c r="E46">
-        <v>0.2060671963049441</v>
+        <v>0.06444375854777611</v>
       </c>
       <c r="F46">
-        <v>0.1060715859399107</v>
+        <v>0.03317195456464453</v>
       </c>
       <c r="G46">
-        <v>0.2793678904785412</v>
+        <v>0.08736721420404311</v>
       </c>
       <c r="H46">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I46">
-        <v>1.751319802565951</v>
+        <v>0.547693337514445</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.719791475981007</v>
+        <v>0.5378334282116131</v>
       </c>
       <c r="C47">
-        <v>0.02562911999999998</v>
+        <v>0.008015040000000005</v>
       </c>
       <c r="D47">
-        <v>0.1714789956533181</v>
+        <v>0.05362692941939372</v>
       </c>
       <c r="E47">
-        <v>0.5037198131898634</v>
+        <v>0.1575291875612304</v>
       </c>
       <c r="F47">
-        <v>0.1874274625345997</v>
+        <v>0.05861452165791557</v>
       </c>
       <c r="G47">
-        <v>0.3724905206380548</v>
+        <v>0.1164896189387242</v>
       </c>
       <c r="H47">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I47">
-        <v>3.074168091796723</v>
+        <v>0.9613900212911879</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2.890946212209919</v>
+        <v>0.9040907190223842</v>
       </c>
       <c r="C48">
-        <v>0.02562911999999998</v>
+        <v>0.008015040000000005</v>
       </c>
       <c r="D48">
-        <v>0.2803022044333081</v>
+        <v>0.08765940385862428</v>
       </c>
       <c r="E48">
-        <v>0.6353738552735777</v>
+        <v>0.198701588855643</v>
       </c>
       <c r="F48">
-        <v>0.235829060002326</v>
+        <v>0.07375123878935529</v>
       </c>
       <c r="G48">
-        <v>0.7077319892123044</v>
+        <v>0.2213302759835756</v>
       </c>
       <c r="H48">
-        <v>0.1872614075997597</v>
+        <v>0.05856259100462201</v>
       </c>
       <c r="I48">
-        <v>4.963073848731195</v>
+        <v>1.552110857514204</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>3.324656552612454</v>
+        <v>1.039725720409085</v>
       </c>
       <c r="C49">
-        <v>0.0232992</v>
+        <v>0.007286400000000002</v>
       </c>
       <c r="D49">
-        <v>0.2572184934799774</v>
+        <v>0.08044039412909058</v>
       </c>
       <c r="E49">
-        <v>0.3548935047474037</v>
+        <v>0.1109864730545032</v>
       </c>
       <c r="F49">
-        <v>0.1956660323163402</v>
+        <v>0.06119098414837341</v>
       </c>
       <c r="G49">
-        <v>0.4097395727018598</v>
+        <v>0.1281385808325964</v>
       </c>
       <c r="H49">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I49">
-        <v>4.666306421488674</v>
+        <v>1.459302255422291</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_SOx.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.8407658603308031</v>
+        <v>2.68845684192735</v>
       </c>
       <c r="C2">
-        <v>0.01020096000000001</v>
+        <v>0.03261888</v>
       </c>
       <c r="D2">
-        <v>0.09384712648393892</v>
+        <v>0.3000882423933066</v>
       </c>
       <c r="E2">
-        <v>0.09487553341755922</v>
+        <v>0.3033767056711678</v>
       </c>
       <c r="F2">
-        <v>0.08276885750595765</v>
+        <v>0.2646640542384181</v>
       </c>
       <c r="G2">
-        <v>0.3164634647835335</v>
+        <v>1.011932581066715</v>
       </c>
       <c r="H2">
-        <v>0.03378611019497421</v>
+        <v>0.1080354274613998</v>
       </c>
       <c r="I2">
-        <v>1.472707912716767</v>
+        <v>4.709172732758357</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.7320867109547095</v>
+        <v>2.340941301036996</v>
       </c>
       <c r="C3">
-        <v>0.02331648000000001</v>
+        <v>0.07455744</v>
       </c>
       <c r="D3">
-        <v>0.04640791968985991</v>
+        <v>0.1483952846999868</v>
       </c>
       <c r="E3">
-        <v>0.06802396735598587</v>
+        <v>0.217515373877441</v>
       </c>
       <c r="F3">
-        <v>0.09887174807131913</v>
+        <v>0.316155115374297</v>
       </c>
       <c r="G3">
-        <v>0.2543356680162142</v>
+        <v>0.8132709700597525</v>
       </c>
       <c r="H3">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I3">
-        <v>1.2523237895904</v>
+        <v>4.004466188848354</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.7817197083075712</v>
+        <v>2.499649185853063</v>
       </c>
       <c r="C4">
-        <v>0.02258784</v>
+        <v>0.07222751999999999</v>
       </c>
       <c r="D4">
-        <v>0.08147168123330953</v>
+        <v>0.2605161664733102</v>
       </c>
       <c r="E4">
-        <v>0.07339428056830057</v>
+        <v>0.2346876402361864</v>
       </c>
       <c r="F4">
-        <v>0.08212474188334332</v>
+        <v>0.2626044117929831</v>
       </c>
       <c r="G4">
-        <v>0.2737506045060017</v>
+        <v>0.8753527234994286</v>
       </c>
       <c r="H4">
-        <v>0.03603851754130585</v>
+        <v>0.1152377892921598</v>
       </c>
       <c r="I4">
-        <v>1.351087374039832</v>
+        <v>4.320275437147131</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.7209620736169986</v>
+        <v>2.305368844095465</v>
       </c>
       <c r="C5">
-        <v>0.01566576</v>
+        <v>0.05009328</v>
       </c>
       <c r="D5">
-        <v>0.06393980046158475</v>
+        <v>0.2044557255866488</v>
       </c>
       <c r="E5">
-        <v>0.07518438497240545</v>
+        <v>0.2404117290224348</v>
       </c>
       <c r="F5">
-        <v>0.06924242943105413</v>
+        <v>0.2214115628842797</v>
       </c>
       <c r="G5">
-        <v>0.2601601489631503</v>
+        <v>0.8318954960916553</v>
       </c>
       <c r="H5">
-        <v>0.04054333223396907</v>
+        <v>0.1296425129536798</v>
       </c>
       <c r="I5">
-        <v>1.245697929679162</v>
+        <v>3.983279150634163</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.7453507016265947</v>
+        <v>2.383354615082668</v>
       </c>
       <c r="C6">
-        <v>0.01785168</v>
+        <v>0.05708304000000001</v>
       </c>
       <c r="D6">
-        <v>0.09797227490081531</v>
+        <v>0.3132789343666386</v>
       </c>
       <c r="E6">
-        <v>0.07518438497240545</v>
+        <v>0.2404117290224348</v>
       </c>
       <c r="F6">
-        <v>0.08405708875118663</v>
+        <v>0.2687833391292885</v>
       </c>
       <c r="G6">
-        <v>0.2290962505794908</v>
+        <v>0.732564690588175</v>
       </c>
       <c r="H6">
-        <v>0.03829092488763743</v>
+        <v>0.1224401511229198</v>
       </c>
       <c r="I6">
-        <v>1.28780330571813</v>
+        <v>4.117916499312125</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.7680278469688497</v>
+        <v>2.455867700386563</v>
       </c>
       <c r="C7">
-        <v>0.01675872</v>
+        <v>0.05358816000000001</v>
       </c>
       <c r="D7">
-        <v>0.09694098779659616</v>
+        <v>0.3099812613733057</v>
       </c>
       <c r="E7">
-        <v>0.0626536541436712</v>
+        <v>0.2003431075186956</v>
       </c>
       <c r="F7">
-        <v>0.08695560905295162</v>
+        <v>0.2780517301337465</v>
       </c>
       <c r="G7">
-        <v>0.2659846299100866</v>
+        <v>0.850520022123558</v>
       </c>
       <c r="H7">
-        <v>0.04730055427296392</v>
+        <v>0.1512495984459598</v>
       </c>
       <c r="I7">
-        <v>1.344622002145119</v>
+        <v>4.299601579981827</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.814665749653867</v>
+        <v>2.604998385256831</v>
       </c>
       <c r="C8">
-        <v>0.01748735999999999</v>
+        <v>0.05591807999999998</v>
       </c>
       <c r="D8">
-        <v>0.09900356200503432</v>
+        <v>0.3165766073599717</v>
       </c>
       <c r="E8">
-        <v>0.05370313212314671</v>
+        <v>0.1717226635874535</v>
       </c>
       <c r="F8">
-        <v>0.08792178248687338</v>
+        <v>0.2811411938018993</v>
       </c>
       <c r="G8">
-        <v>0.1514365046203414</v>
+        <v>0.4842376768294713</v>
       </c>
       <c r="H8">
-        <v>0.05180536896562715</v>
+        <v>0.1656543221074797</v>
       </c>
       <c r="I8">
-        <v>1.27602345985489</v>
+        <v>4.080248928943107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.9532958457084115</v>
+        <v>3.048285925605159</v>
       </c>
       <c r="C9">
-        <v>0.01493712</v>
+        <v>0.04776335999999998</v>
       </c>
       <c r="D9">
-        <v>0.1165354427767593</v>
+        <v>0.3726370482466338</v>
       </c>
       <c r="E9">
-        <v>0.07518438497240545</v>
+        <v>0.2404117290224348</v>
       </c>
       <c r="F9">
-        <v>0.08373503093987938</v>
+        <v>0.2677535179065711</v>
       </c>
       <c r="G9">
-        <v>0.1514365046203414</v>
+        <v>0.4842376768294713</v>
       </c>
       <c r="H9">
-        <v>0.04054333223396907</v>
+        <v>0.1296425129536798</v>
       </c>
       <c r="I9">
-        <v>1.435667661251766</v>
+        <v>4.590731770563949</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.079517692424741</v>
+        <v>3.451896494749467</v>
       </c>
       <c r="C10">
-        <v>0.01420848</v>
+        <v>0.04543344000000001</v>
       </c>
       <c r="D10">
-        <v>0.08044039412909058</v>
+        <v>0.2572184934799774</v>
       </c>
       <c r="E10">
-        <v>0.1270974126914473</v>
+        <v>0.4064103038236399</v>
       </c>
       <c r="F10">
-        <v>0.05668217479007222</v>
+        <v>0.1812485351982942</v>
       </c>
       <c r="G10">
-        <v>0.08348422690608565</v>
+        <v>0.266951539790606</v>
       </c>
       <c r="H10">
-        <v>0.06531981304361684</v>
+        <v>0.2088684930920395</v>
       </c>
       <c r="I10">
-        <v>1.506750193985053</v>
+        <v>4.818027300134024</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.08807510576144</v>
+        <v>3.479259923166031</v>
       </c>
       <c r="C11">
-        <v>0.01384416</v>
+        <v>0.04426847999999999</v>
       </c>
       <c r="D11">
-        <v>0.07115881019111842</v>
+        <v>0.2275394365399799</v>
       </c>
       <c r="E11">
-        <v>0.1270974126914473</v>
+        <v>0.4064103038236399</v>
       </c>
       <c r="F11">
-        <v>0.04605426701693371</v>
+        <v>0.1472644348486141</v>
       </c>
       <c r="G11">
-        <v>0.01747344284080861</v>
+        <v>0.05587357809570821</v>
       </c>
       <c r="H11">
-        <v>0.02702888815597937</v>
+        <v>0.08642834196911983</v>
       </c>
       <c r="I11">
-        <v>1.390732086657728</v>
+        <v>4.447044498443092</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.8176608443217113</v>
+        <v>2.614575585202625</v>
       </c>
       <c r="C12">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D12">
-        <v>0.0505330681067364</v>
+        <v>0.1615859766733191</v>
       </c>
       <c r="E12">
-        <v>0.1163567862668179</v>
+        <v>0.372065771106149</v>
       </c>
       <c r="F12">
-        <v>0.03123960769680116</v>
+        <v>0.09989265860360524</v>
       </c>
       <c r="G12">
-        <v>0.03494688568161722</v>
+        <v>0.1117471561914164</v>
       </c>
       <c r="H12">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I12">
-        <v>1.064052174112679</v>
+        <v>3.402443513269394</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.6691897229299619</v>
+        <v>2.139820102175257</v>
       </c>
       <c r="C13">
-        <v>0.009836640000000002</v>
+        <v>0.03145391999999999</v>
       </c>
       <c r="D13">
-        <v>0.03403247443923061</v>
+        <v>0.1088232087799905</v>
       </c>
       <c r="E13">
-        <v>0.1306776214996571</v>
+        <v>0.4178584813961368</v>
       </c>
       <c r="F13">
-        <v>0.01900141086712649</v>
+        <v>0.06075945214033723</v>
       </c>
       <c r="G13">
-        <v>0.03300539203263853</v>
+        <v>0.1055389808474488</v>
       </c>
       <c r="H13">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I13">
-        <v>0.9025004838076095</v>
+        <v>2.88586123083145</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.4894840428592565</v>
+        <v>1.565188105427423</v>
       </c>
       <c r="C14">
-        <v>0.0054648</v>
+        <v>0.01747439999999999</v>
       </c>
       <c r="D14">
-        <v>0.02887603891813506</v>
+        <v>0.0923348438133251</v>
       </c>
       <c r="E14">
-        <v>0.09845574222576903</v>
+        <v>0.3148248832436645</v>
       </c>
       <c r="F14">
-        <v>0.0170690639992831</v>
+        <v>0.05458052480403176</v>
       </c>
       <c r="G14">
-        <v>0.01747344284080861</v>
+        <v>0.05587357809570821</v>
       </c>
       <c r="H14">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I14">
-        <v>0.6613279455359156</v>
+        <v>2.114681059045673</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.3440080161353514</v>
+        <v>1.100009822345847</v>
       </c>
       <c r="C15">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D15">
-        <v>0.01443801945906753</v>
+        <v>0.04616742190666255</v>
       </c>
       <c r="E15">
-        <v>0.05012292331493695</v>
+        <v>0.1602744860149565</v>
       </c>
       <c r="F15">
-        <v>0.009339676527909615</v>
+        <v>0.02986481545880983</v>
       </c>
       <c r="G15">
-        <v>0.03688837933059601</v>
+        <v>0.117955331535384</v>
       </c>
       <c r="H15">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I15">
-        <v>0.4658595894605247</v>
+        <v>1.48964588092318</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2049500494139719</v>
+        <v>0.6553541105766922</v>
       </c>
       <c r="C16">
-        <v>0.007650720000000001</v>
+        <v>0.02446416</v>
       </c>
       <c r="D16">
-        <v>0.01237544525062929</v>
+        <v>0.03957207591999646</v>
       </c>
       <c r="E16">
-        <v>0.0214812528492587</v>
+        <v>0.06868906543498138</v>
       </c>
       <c r="F16">
-        <v>0.008373503093987943</v>
+        <v>0.02677535179065709</v>
       </c>
       <c r="G16">
-        <v>0.02329792378774484</v>
+        <v>0.0744981041276109</v>
       </c>
       <c r="H16">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I16">
-        <v>0.2826337090882559</v>
+        <v>0.9037575915114581</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1510383453927601</v>
+        <v>0.4829645115523431</v>
       </c>
       <c r="C17">
-        <v>0.01202256</v>
+        <v>0.03844368000000001</v>
       </c>
       <c r="D17">
-        <v>0.001031287104219109</v>
+        <v>0.003297672993333039</v>
       </c>
       <c r="E17">
-        <v>0.01074062642462935</v>
+        <v>0.03434453271749069</v>
       </c>
       <c r="F17">
-        <v>0.01320437026359637</v>
+        <v>0.0422226701314208</v>
       </c>
       <c r="G17">
-        <v>0.03106389838365978</v>
+        <v>0.09933080550348125</v>
       </c>
       <c r="I17">
-        <v>0.2191010875688646</v>
+        <v>0.7006038728980689</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.0881413573680129</v>
+        <v>0.2818433126906027</v>
       </c>
       <c r="C18">
-        <v>0.008743679999999997</v>
+        <v>0.02795903999999999</v>
       </c>
       <c r="D18">
-        <v>0.001031287104219109</v>
+        <v>0.003297672993333039</v>
       </c>
       <c r="E18">
-        <v>0.007160417616419567</v>
+        <v>0.0228963551449938</v>
       </c>
       <c r="F18">
-        <v>0.01030584996183131</v>
+        <v>0.03295427912696255</v>
       </c>
       <c r="G18">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H18">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I18">
-        <v>0.1467574041314955</v>
+        <v>0.4692756519461658</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.06760356535993224</v>
+        <v>0.2161710844908507</v>
       </c>
       <c r="C19">
-        <v>0.01238688000000001</v>
+        <v>0.03960864</v>
       </c>
       <c r="D19">
-        <v>0.008250296833752875</v>
+        <v>0.02638138394666431</v>
       </c>
       <c r="E19">
-        <v>0.001790104404104892</v>
+        <v>0.00572408878624845</v>
       </c>
       <c r="F19">
-        <v>0.0067632140374518</v>
+        <v>0.02162624567706919</v>
       </c>
       <c r="G19">
-        <v>0.03882987297957469</v>
+        <v>0.1241635068793516</v>
       </c>
       <c r="I19">
-        <v>0.1356239336148165</v>
+        <v>0.4336749497801843</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.0838626506996628</v>
+        <v>0.2681615984823209</v>
       </c>
       <c r="C20">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D20">
-        <v>0.006187722625314645</v>
+        <v>0.01978603795999823</v>
       </c>
       <c r="E20">
-        <v>0.01611093963694403</v>
+        <v>0.05151679907623602</v>
       </c>
       <c r="F20">
-        <v>0.008373503093987943</v>
+        <v>0.02677535179065709</v>
       </c>
       <c r="G20">
-        <v>0.03300539203263853</v>
+        <v>0.1055389808474488</v>
       </c>
       <c r="H20">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I20">
-        <v>0.1563503754348796</v>
+        <v>0.4999504099874211</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1236546227153191</v>
+        <v>0.3954015406193407</v>
       </c>
       <c r="C21">
-        <v>0.0018216</v>
+        <v>0.005824800000000001</v>
       </c>
       <c r="D21">
-        <v>0.01340673235484843</v>
+        <v>0.04286974891332954</v>
       </c>
       <c r="E21">
-        <v>0.008950522020524456</v>
+        <v>0.02862044393124223</v>
       </c>
       <c r="F21">
-        <v>0.01545877494274697</v>
+        <v>0.0494314186904439</v>
       </c>
       <c r="G21">
-        <v>0.05630331582038337</v>
+        <v>0.1800370849750597</v>
       </c>
       <c r="H21">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I21">
-        <v>0.2218479752001539</v>
+        <v>0.709387398960176</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.3277489307956211</v>
+        <v>1.048019308354377</v>
       </c>
       <c r="C22">
-        <v>0.003643200000000001</v>
+        <v>0.0116496</v>
       </c>
       <c r="D22">
-        <v>0.02681346470969686</v>
+        <v>0.08573949782665907</v>
       </c>
       <c r="E22">
-        <v>0.06444375854777611</v>
+        <v>0.2060671963049441</v>
       </c>
       <c r="F22">
-        <v>0.03317195456464453</v>
+        <v>0.1060715859399107</v>
       </c>
       <c r="G22">
-        <v>0.08736721420404311</v>
+        <v>0.2793678904785412</v>
       </c>
       <c r="H22">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I22">
-        <v>0.547693337514445</v>
+        <v>1.751319802565951</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.5378334282116131</v>
+        <v>1.719791475981007</v>
       </c>
       <c r="C23">
-        <v>0.008015040000000005</v>
+        <v>0.02562911999999998</v>
       </c>
       <c r="D23">
-        <v>0.05362692941939372</v>
+        <v>0.1714789956533181</v>
       </c>
       <c r="E23">
-        <v>0.1575291875612304</v>
+        <v>0.5037198131898634</v>
       </c>
       <c r="F23">
-        <v>0.05861452165791557</v>
+        <v>0.1874274625345997</v>
       </c>
       <c r="G23">
-        <v>0.1164896189387242</v>
+        <v>0.3724905206380548</v>
       </c>
       <c r="H23">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I23">
-        <v>0.9613900212911879</v>
+        <v>3.074168091796723</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.9040907190223842</v>
+        <v>2.890946212209919</v>
       </c>
       <c r="C24">
-        <v>0.008015040000000005</v>
+        <v>0.02562911999999998</v>
       </c>
       <c r="D24">
-        <v>0.08765940385862428</v>
+        <v>0.2803022044333081</v>
       </c>
       <c r="E24">
-        <v>0.198701588855643</v>
+        <v>0.6353738552735777</v>
       </c>
       <c r="F24">
-        <v>0.07375123878935529</v>
+        <v>0.235829060002326</v>
       </c>
       <c r="G24">
-        <v>0.2213302759835756</v>
+        <v>0.7077319892123044</v>
       </c>
       <c r="H24">
-        <v>0.05856259100462201</v>
+        <v>0.1872614075997597</v>
       </c>
       <c r="I24">
-        <v>1.552110857514204</v>
+        <v>4.963073848731195</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.039725720409085</v>
+        <v>3.324656552612454</v>
       </c>
       <c r="C25">
-        <v>0.007286400000000002</v>
+        <v>0.0232992</v>
       </c>
       <c r="D25">
-        <v>0.08044039412909058</v>
+        <v>0.2572184934799774</v>
       </c>
       <c r="E25">
-        <v>0.1109864730545032</v>
+        <v>0.3548935047474037</v>
       </c>
       <c r="F25">
-        <v>0.06119098414837341</v>
+        <v>0.1956660323163402</v>
       </c>
       <c r="G25">
-        <v>0.1281385808325964</v>
+        <v>0.4097395727018598</v>
       </c>
       <c r="H25">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I25">
-        <v>1.459302255422291</v>
+        <v>4.666306421488674</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.8407658603308031</v>
+        <v>2.68845684192735</v>
       </c>
       <c r="C26">
-        <v>0.01020096000000001</v>
+        <v>0.03261888</v>
       </c>
       <c r="D26">
-        <v>0.09384712648393892</v>
+        <v>0.3000882423933066</v>
       </c>
       <c r="E26">
-        <v>0.09487553341755922</v>
+        <v>0.3033767056711678</v>
       </c>
       <c r="F26">
-        <v>0.08276885750595765</v>
+        <v>0.2646640542384181</v>
       </c>
       <c r="G26">
-        <v>0.3164634647835335</v>
+        <v>1.011932581066715</v>
       </c>
       <c r="H26">
-        <v>0.03378611019497421</v>
+        <v>0.1080354274613998</v>
       </c>
       <c r="I26">
-        <v>1.472707912716767</v>
+        <v>4.709172732758357</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.7231014269511734</v>
+        <v>2.312209701199605</v>
       </c>
       <c r="C27">
-        <v>0.02003759999999999</v>
+        <v>0.06407279999999999</v>
       </c>
       <c r="D27">
-        <v>0.08456554254596695</v>
+        <v>0.2704091854533095</v>
       </c>
       <c r="E27">
-        <v>0.07339428056830057</v>
+        <v>0.2346876402361864</v>
       </c>
       <c r="F27">
-        <v>0.09693940120347573</v>
+        <v>0.3099761880379917</v>
       </c>
       <c r="G27">
-        <v>0.285399566399874</v>
+        <v>0.9126017755632342</v>
       </c>
       <c r="H27">
-        <v>0.04955296161929552</v>
+        <v>0.1584519602767197</v>
       </c>
       <c r="I27">
-        <v>1.332990779288086</v>
+        <v>4.262409250767046</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.7616097869663252</v>
+        <v>2.435345129074141</v>
       </c>
       <c r="C28">
-        <v>0.01858032</v>
+        <v>0.05941296000000001</v>
       </c>
       <c r="D28">
-        <v>0.08044039412909058</v>
+        <v>0.2572184934799774</v>
       </c>
       <c r="E28">
-        <v>0.1038260554380837</v>
+        <v>0.3319971496024097</v>
       </c>
       <c r="F28">
-        <v>0.07987033720419269</v>
+        <v>0.2553956632339602</v>
       </c>
       <c r="G28">
-        <v>0.3319954139753641</v>
+        <v>1.061597983818456</v>
       </c>
       <c r="H28">
-        <v>0.05180536896562715</v>
+        <v>0.1656543221074797</v>
       </c>
       <c r="I28">
-        <v>1.428127676678683</v>
+        <v>4.566621701316423</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.7590425629653149</v>
+        <v>2.427136100549171</v>
       </c>
       <c r="C29">
-        <v>0.01712304</v>
+        <v>0.05475312000000001</v>
       </c>
       <c r="D29">
-        <v>0.06806494887846122</v>
+        <v>0.2176464175599809</v>
       </c>
       <c r="E29">
-        <v>0.06981407176009076</v>
+        <v>0.2232394626636894</v>
       </c>
       <c r="F29">
-        <v>0.07310712316674085</v>
+        <v>0.2337694175568907</v>
       </c>
       <c r="G29">
-        <v>0.2485111870692783</v>
+        <v>0.79464644402785</v>
       </c>
       <c r="H29">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I29">
-        <v>1.267196636688529</v>
+        <v>4.052024027988223</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.8031132416493222</v>
+        <v>2.568057756894472</v>
       </c>
       <c r="C30">
-        <v>0.01785168</v>
+        <v>0.05708304000000001</v>
       </c>
       <c r="D30">
-        <v>0.066002374670023</v>
+        <v>0.2110510715733145</v>
       </c>
       <c r="E30">
-        <v>0.08234480258882504</v>
+        <v>0.2633080841674287</v>
       </c>
       <c r="F30">
-        <v>0.09114236059994565</v>
+        <v>0.2914394060290753</v>
       </c>
       <c r="G30">
-        <v>0.2057983267917459</v>
+        <v>0.6580665864605632</v>
       </c>
       <c r="H30">
-        <v>0.04730055427296392</v>
+        <v>0.1512495984459598</v>
       </c>
       <c r="I30">
-        <v>1.313553340572826</v>
+        <v>4.200255543570814</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.7744459069713758</v>
+        <v>2.476390271698984</v>
       </c>
       <c r="C31">
-        <v>0.01420848</v>
+        <v>0.04543344000000001</v>
       </c>
       <c r="D31">
-        <v>0.09384712648393892</v>
+        <v>0.3000882423933066</v>
       </c>
       <c r="E31">
-        <v>0.07518438497240545</v>
+        <v>0.2404117290224348</v>
       </c>
       <c r="F31">
-        <v>0.08631149343033724</v>
+        <v>0.2759920876883115</v>
       </c>
       <c r="G31">
-        <v>0.1960908585468523</v>
+        <v>0.6270257097407255</v>
       </c>
       <c r="H31">
-        <v>0.05405777631195874</v>
+        <v>0.1728566839382397</v>
       </c>
       <c r="I31">
-        <v>1.294146026716869</v>
+        <v>4.138198164482001</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.8202280683227221</v>
+        <v>2.622784613727599</v>
       </c>
       <c r="C32">
-        <v>0.01639439999999999</v>
+        <v>0.0524232</v>
       </c>
       <c r="D32">
-        <v>0.09281583937971982</v>
+        <v>0.2967905693999736</v>
       </c>
       <c r="E32">
-        <v>0.07876459378061521</v>
+        <v>0.2518599065949317</v>
       </c>
       <c r="F32">
-        <v>0.08405708875118663</v>
+        <v>0.2687833391292885</v>
       </c>
       <c r="G32">
-        <v>0.1941493648978736</v>
+        <v>0.6208175343967574</v>
       </c>
       <c r="H32">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I32">
-        <v>1.31794305798076</v>
+        <v>4.21429222887919</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.9532958457084115</v>
+        <v>3.048285925605159</v>
       </c>
       <c r="C33">
-        <v>0.01493712</v>
+        <v>0.04776335999999998</v>
       </c>
       <c r="D33">
-        <v>0.1165354427767593</v>
+        <v>0.3726370482466338</v>
       </c>
       <c r="E33">
-        <v>0.07518438497240545</v>
+        <v>0.2404117290224348</v>
       </c>
       <c r="F33">
-        <v>0.08373503093987938</v>
+        <v>0.2677535179065711</v>
       </c>
       <c r="G33">
-        <v>0.1514365046203414</v>
+        <v>0.4842376768294713</v>
       </c>
       <c r="H33">
-        <v>0.04054333223396907</v>
+        <v>0.1296425129536798</v>
       </c>
       <c r="I33">
-        <v>1.435667661251766</v>
+        <v>4.590731770563949</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.079517692424741</v>
+        <v>3.451896494749467</v>
       </c>
       <c r="C34">
-        <v>0.01420848</v>
+        <v>0.04543344000000001</v>
       </c>
       <c r="D34">
-        <v>0.08044039412909058</v>
+        <v>0.2572184934799774</v>
       </c>
       <c r="E34">
-        <v>0.1270974126914473</v>
+        <v>0.4064103038236399</v>
       </c>
       <c r="F34">
-        <v>0.05668217479007222</v>
+        <v>0.1812485351982942</v>
       </c>
       <c r="G34">
-        <v>0.08348422690608565</v>
+        <v>0.266951539790606</v>
       </c>
       <c r="H34">
-        <v>0.06531981304361684</v>
+        <v>0.2088684930920395</v>
       </c>
       <c r="I34">
-        <v>1.506750193985053</v>
+        <v>4.818027300134024</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.08807510576144</v>
+        <v>3.479259923166031</v>
       </c>
       <c r="C35">
-        <v>0.01384416</v>
+        <v>0.04426847999999999</v>
       </c>
       <c r="D35">
-        <v>0.07115881019111842</v>
+        <v>0.2275394365399799</v>
       </c>
       <c r="E35">
-        <v>0.1270974126914473</v>
+        <v>0.4064103038236399</v>
       </c>
       <c r="F35">
-        <v>0.04605426701693371</v>
+        <v>0.1472644348486141</v>
       </c>
       <c r="G35">
-        <v>0.01747344284080861</v>
+        <v>0.05587357809570821</v>
       </c>
       <c r="H35">
-        <v>0.02702888815597937</v>
+        <v>0.08642834196911983</v>
       </c>
       <c r="I35">
-        <v>1.390732086657728</v>
+        <v>4.447044498443092</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.8176608443217113</v>
+        <v>2.614575585202625</v>
       </c>
       <c r="C36">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D36">
-        <v>0.0505330681067364</v>
+        <v>0.1615859766733191</v>
       </c>
       <c r="E36">
-        <v>0.1163567862668179</v>
+        <v>0.372065771106149</v>
       </c>
       <c r="F36">
-        <v>0.03123960769680116</v>
+        <v>0.09989265860360524</v>
       </c>
       <c r="G36">
-        <v>0.03494688568161722</v>
+        <v>0.1117471561914164</v>
       </c>
       <c r="H36">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I36">
-        <v>1.064052174112679</v>
+        <v>3.402443513269394</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.6691897229299619</v>
+        <v>2.139820102175257</v>
       </c>
       <c r="C37">
-        <v>0.009836640000000002</v>
+        <v>0.03145391999999999</v>
       </c>
       <c r="D37">
-        <v>0.03403247443923061</v>
+        <v>0.1088232087799905</v>
       </c>
       <c r="E37">
-        <v>0.1306776214996571</v>
+        <v>0.4178584813961368</v>
       </c>
       <c r="F37">
-        <v>0.01900141086712649</v>
+        <v>0.06075945214033723</v>
       </c>
       <c r="G37">
-        <v>0.03300539203263853</v>
+        <v>0.1055389808474488</v>
       </c>
       <c r="H37">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I37">
-        <v>0.9025004838076095</v>
+        <v>2.88586123083145</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.4894840428592565</v>
+        <v>1.565188105427423</v>
       </c>
       <c r="C38">
-        <v>0.0054648</v>
+        <v>0.01747439999999999</v>
       </c>
       <c r="D38">
-        <v>0.02887603891813506</v>
+        <v>0.0923348438133251</v>
       </c>
       <c r="E38">
-        <v>0.09845574222576903</v>
+        <v>0.3148248832436645</v>
       </c>
       <c r="F38">
-        <v>0.0170690639992831</v>
+        <v>0.05458052480403176</v>
       </c>
       <c r="G38">
-        <v>0.01747344284080861</v>
+        <v>0.05587357809570821</v>
       </c>
       <c r="H38">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I38">
-        <v>0.6613279455359156</v>
+        <v>2.114681059045673</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.3440080161353514</v>
+        <v>1.100009822345847</v>
       </c>
       <c r="C39">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D39">
-        <v>0.01443801945906753</v>
+        <v>0.04616742190666255</v>
       </c>
       <c r="E39">
-        <v>0.05012292331493695</v>
+        <v>0.1602744860149565</v>
       </c>
       <c r="F39">
-        <v>0.009339676527909615</v>
+        <v>0.02986481545880983</v>
       </c>
       <c r="G39">
-        <v>0.03688837933059601</v>
+        <v>0.117955331535384</v>
       </c>
       <c r="H39">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I39">
-        <v>0.4658595894605247</v>
+        <v>1.48964588092318</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2049500494139719</v>
+        <v>0.6553541105766922</v>
       </c>
       <c r="C40">
-        <v>0.007650720000000001</v>
+        <v>0.02446416</v>
       </c>
       <c r="D40">
-        <v>0.01237544525062929</v>
+        <v>0.03957207591999646</v>
       </c>
       <c r="E40">
-        <v>0.0214812528492587</v>
+        <v>0.06868906543498138</v>
       </c>
       <c r="F40">
-        <v>0.008373503093987943</v>
+        <v>0.02677535179065709</v>
       </c>
       <c r="G40">
-        <v>0.02329792378774484</v>
+        <v>0.0744981041276109</v>
       </c>
       <c r="H40">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I40">
-        <v>0.2826337090882559</v>
+        <v>0.9037575915114581</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1510383453927601</v>
+        <v>0.4829645115523431</v>
       </c>
       <c r="C41">
-        <v>0.01202256</v>
+        <v>0.03844368000000001</v>
       </c>
       <c r="D41">
-        <v>0.001031287104219109</v>
+        <v>0.003297672993333039</v>
       </c>
       <c r="E41">
-        <v>0.01074062642462935</v>
+        <v>0.03434453271749069</v>
       </c>
       <c r="F41">
-        <v>0.01320437026359637</v>
+        <v>0.0422226701314208</v>
       </c>
       <c r="G41">
-        <v>0.03106389838365978</v>
+        <v>0.09933080550348125</v>
       </c>
       <c r="I41">
-        <v>0.2191010875688646</v>
+        <v>0.7006038728980689</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.0881413573680129</v>
+        <v>0.2818433126906027</v>
       </c>
       <c r="C42">
-        <v>0.008743679999999997</v>
+        <v>0.02795903999999999</v>
       </c>
       <c r="D42">
-        <v>0.001031287104219109</v>
+        <v>0.003297672993333039</v>
       </c>
       <c r="E42">
-        <v>0.007160417616419567</v>
+        <v>0.0228963551449938</v>
       </c>
       <c r="F42">
-        <v>0.01030584996183131</v>
+        <v>0.03295427912696255</v>
       </c>
       <c r="G42">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H42">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I42">
-        <v>0.1467574041314955</v>
+        <v>0.4692756519461658</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.06760356535993224</v>
+        <v>0.2161710844908507</v>
       </c>
       <c r="C43">
-        <v>0.01238688000000001</v>
+        <v>0.03960864</v>
       </c>
       <c r="D43">
-        <v>0.008250296833752875</v>
+        <v>0.02638138394666431</v>
       </c>
       <c r="E43">
-        <v>0.001790104404104892</v>
+        <v>0.00572408878624845</v>
       </c>
       <c r="F43">
-        <v>0.0067632140374518</v>
+        <v>0.02162624567706919</v>
       </c>
       <c r="G43">
-        <v>0.03882987297957469</v>
+        <v>0.1241635068793516</v>
       </c>
       <c r="I43">
-        <v>0.1356239336148165</v>
+        <v>0.4336749497801843</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.0838626506996628</v>
+        <v>0.2681615984823209</v>
       </c>
       <c r="C44">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D44">
-        <v>0.006187722625314645</v>
+        <v>0.01978603795999823</v>
       </c>
       <c r="E44">
-        <v>0.01611093963694403</v>
+        <v>0.05151679907623602</v>
       </c>
       <c r="F44">
-        <v>0.008373503093987943</v>
+        <v>0.02677535179065709</v>
       </c>
       <c r="G44">
-        <v>0.03300539203263853</v>
+        <v>0.1055389808474488</v>
       </c>
       <c r="H44">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I44">
-        <v>0.1563503754348796</v>
+        <v>0.4999504099874211</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1236546227153191</v>
+        <v>0.3954015406193407</v>
       </c>
       <c r="C45">
-        <v>0.0018216</v>
+        <v>0.005824800000000001</v>
       </c>
       <c r="D45">
-        <v>0.01340673235484843</v>
+        <v>0.04286974891332954</v>
       </c>
       <c r="E45">
-        <v>0.008950522020524456</v>
+        <v>0.02862044393124223</v>
       </c>
       <c r="F45">
-        <v>0.01545877494274697</v>
+        <v>0.0494314186904439</v>
       </c>
       <c r="G45">
-        <v>0.05630331582038337</v>
+        <v>0.1800370849750597</v>
       </c>
       <c r="H45">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I45">
-        <v>0.2218479752001539</v>
+        <v>0.709387398960176</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.3277489307956211</v>
+        <v>1.048019308354377</v>
       </c>
       <c r="C46">
-        <v>0.003643200000000001</v>
+        <v>0.0116496</v>
       </c>
       <c r="D46">
-        <v>0.02681346470969686</v>
+        <v>0.08573949782665907</v>
       </c>
       <c r="E46">
-        <v>0.06444375854777611</v>
+        <v>0.2060671963049441</v>
       </c>
       <c r="F46">
-        <v>0.03317195456464453</v>
+        <v>0.1060715859399107</v>
       </c>
       <c r="G46">
-        <v>0.08736721420404311</v>
+        <v>0.2793678904785412</v>
       </c>
       <c r="H46">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I46">
-        <v>0.547693337514445</v>
+        <v>1.751319802565951</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.5378334282116131</v>
+        <v>1.719791475981007</v>
       </c>
       <c r="C47">
-        <v>0.008015040000000005</v>
+        <v>0.02562911999999998</v>
       </c>
       <c r="D47">
-        <v>0.05362692941939372</v>
+        <v>0.1714789956533181</v>
       </c>
       <c r="E47">
-        <v>0.1575291875612304</v>
+        <v>0.5037198131898634</v>
       </c>
       <c r="F47">
-        <v>0.05861452165791557</v>
+        <v>0.1874274625345997</v>
       </c>
       <c r="G47">
-        <v>0.1164896189387242</v>
+        <v>0.3724905206380548</v>
       </c>
       <c r="H47">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I47">
-        <v>0.9613900212911879</v>
+        <v>3.074168091796723</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.9040907190223842</v>
+        <v>2.890946212209919</v>
       </c>
       <c r="C48">
-        <v>0.008015040000000005</v>
+        <v>0.02562911999999998</v>
       </c>
       <c r="D48">
-        <v>0.08765940385862428</v>
+        <v>0.2803022044333081</v>
       </c>
       <c r="E48">
-        <v>0.198701588855643</v>
+        <v>0.6353738552735777</v>
       </c>
       <c r="F48">
-        <v>0.07375123878935529</v>
+        <v>0.235829060002326</v>
       </c>
       <c r="G48">
-        <v>0.2213302759835756</v>
+        <v>0.7077319892123044</v>
       </c>
       <c r="H48">
-        <v>0.05856259100462201</v>
+        <v>0.1872614075997597</v>
       </c>
       <c r="I48">
-        <v>1.552110857514204</v>
+        <v>4.963073848731195</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.039725720409085</v>
+        <v>3.324656552612454</v>
       </c>
       <c r="C49">
-        <v>0.007286400000000002</v>
+        <v>0.0232992</v>
       </c>
       <c r="D49">
-        <v>0.08044039412909058</v>
+        <v>0.2572184934799774</v>
       </c>
       <c r="E49">
-        <v>0.1109864730545032</v>
+        <v>0.3548935047474037</v>
       </c>
       <c r="F49">
-        <v>0.06119098414837341</v>
+        <v>0.1956660323163402</v>
       </c>
       <c r="G49">
-        <v>0.1281385808325964</v>
+        <v>0.4097395727018598</v>
       </c>
       <c r="H49">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I49">
-        <v>1.459302255422291</v>
+        <v>4.666306421488674</v>
       </c>
     </row>
   </sheetData>
